--- a/config/languageFile.xlsx
+++ b/config/languageFile.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20387"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DATEN\PHD\ValenceSoftware_v2\ValenceSoftwarev2\config\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DATEN\PHD\CAMtools_CAMEL\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{05D99CFF-6FD7-4FE9-B530-D2734160B800}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="10035"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,8 +19,53 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={A646E28B-97F6-4AE2-BCBC-80D63BDE895B}</author>
+    <author>tc={A5E30C12-9A09-4005-AC0C-695CE60E1B9A}</author>
+  </authors>
+  <commentList>
+    <comment ref="C29" authorId="0" shapeId="0" xr:uid="{A646E28B-97F6-4AE2-BCBC-80D63BDE895B}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Kommentarthread]
+Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
+Kommentar:
+    I'm not sure whether "agreement or disagreement" might be an error here. I suppose it's more about the support or inhibion between concepts (that appear mentioned earlier in the table), right?</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C50" authorId="1" shapeId="0" xr:uid="{A5E30C12-9A09-4005-AC0C-695CE60E1B9A}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Kommentarthread]
+Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
+Kommentar:
+    Should this realy be phrased as disagreement/agreement? For me personally disagreement/agreement would intuitively be pointing more to what I personally think or feel in terms of valence</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="223">
   <si>
     <t>english</t>
   </si>
@@ -327,12 +373,6 @@
     <t>Type and Strength of Connection</t>
   </si>
   <si>
-    <t>Disagreement</t>
-  </si>
-  <si>
-    <t>Agreement</t>
-  </si>
-  <si>
     <t>Direction of Connection</t>
   </si>
   <si>
@@ -379,12 +419,327 @@
   </si>
   <si>
     <t xml:space="preserve">Please do not change or minimize the browser window while the study is running. Only if there is a break in the course of the study. </t>
+  </si>
+  <si>
+    <t>Schließen</t>
+  </si>
+  <si>
+    <t>Cerrar</t>
+  </si>
+  <si>
+    <t>Bitte klicken Sie auf die Navigationsleiste, wenn Sie Hilfe brauchen, wie man eine Cognitive Affective Map zeichnet. Ansonsten können Sie dieses Fenster jetzt schließen.</t>
+  </si>
+  <si>
+    <t>Si necesita ayuda sobre como trazar un Cognitive Affective Map por favor haga clic en la barra de navegación, en caso contrario usted puede simplemente cerrar esta ventana</t>
+  </si>
+  <si>
+    <t>Referencia rápida</t>
+  </si>
+  <si>
+    <t>Schnellübersicht</t>
+  </si>
+  <si>
+    <t>Jedes Konzept erhält einen grundlegenden emotionalen Wert:</t>
+  </si>
+  <si>
+    <t>A cada concepto se le asigna un valor emocionál básico:</t>
+  </si>
+  <si>
+    <t>Positives Konzept</t>
+  </si>
+  <si>
+    <t>Negatives Konzept</t>
+  </si>
+  <si>
+    <t>Concepto positivo</t>
+  </si>
+  <si>
+    <t>Concepto negativo</t>
+  </si>
+  <si>
+    <t>Ambivalentes Konzept</t>
+  </si>
+  <si>
+    <t>Neutrales Konzept</t>
+  </si>
+  <si>
+    <t>Concepto ambivalente</t>
+  </si>
+  <si>
+    <t>Concepto neutro</t>
+  </si>
+  <si>
+    <t>Zeichnen Sie Verbindungen zwischen Konzepten, die in einem Zusammenhang zueinander stehen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Traze conecciones entre conceptos que están relacionados entre si </t>
+  </si>
+  <si>
+    <t>Konzepte hemmen einander</t>
+  </si>
+  <si>
+    <t>Bewegen Sie Ihre Cognitive Affective Map</t>
+  </si>
+  <si>
+    <t>Los conceptos se inhiben mutualmente</t>
+  </si>
+  <si>
+    <t>dadurch, dass Sie den Cursor zum Rand des Zeichenfensters (grauer Bereich) bewegen</t>
+  </si>
+  <si>
+    <t>por mover el cursor del ratón hacia el borde de la ventana de trazar (area griz)</t>
+  </si>
+  <si>
+    <t>Konzepte erstellen, aktualisieren, löschen:</t>
+  </si>
+  <si>
+    <t>Crear, actualizar, borrar conceptos:</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;Erstellen:&lt;/b&gt; Einzelner Mausklick auf die weiße Zeichenfläche</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;Aktualisieren:&lt;/b&gt; Doppelklick auf bereits existierendes Konzept</t>
+  </si>
+  <si>
+    <t>Cambiar contenido de conceptos:</t>
+  </si>
+  <si>
+    <t>Inhalt von Konzepten verändern:</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;Text hinzufügen:&lt;/b&gt; Verändern sie den Inhalt des Konzepts (benutzen Sie nur einzelne Worte)</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;Añadir texto:&lt;/b&gt; Cambie el contenido del concepto (use solamente palabras individuales)</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;Löschen:&lt;/b&gt; Doppelklick auf bereits existierendes Konzept und anschließend Klick auf "Papierkorb" Symbol in der oberen rechten Ecke, des Fensters, das sich öffnet</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;Cambiar tipo e intensidad:&lt;/b&gt; Use el control deslizante para cambiar el tipo y la intensidad de la emoción que se le atribuye al concepto</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;Kommentar hinzufügen:&lt;/b&gt; Schreiben Sie einen Kommentar in das Eingabefeld "Kommentar"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;b&gt;Añadir comentario:&lt;/b&gt; Escriba un comentario en el campo de entrade "comentario" </t>
+  </si>
+  <si>
+    <t>Verbindungen erstellen, aktualisieren, löschen:</t>
+  </si>
+  <si>
+    <t>Crear, actualizar, borrar conecciones:</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;Erstellen:&lt;/b&gt; Klicken Sie auf zwei Konzepte um eine Verbindung zu zeichnen</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;Crear:&lt;/b&gt; Haga clic en dos conceptos para trazar una conexión entre ellos</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;Aktualisieren:&lt;/b&gt; Doppelklick auf bereits existierende Verbindung</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;Actualizar:&lt;/b&gt; Haga doble clic en conexión ya existente</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;Löschen:&lt;/b&gt; Doppelklick auf bereits existierende Verbindung und anschließend Klick auf "Papierkorb" Symbol in der oberen rechten Ecke, des Fensters, das sich öffnet</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;Borrar:&lt;/b&gt; Haga doble clic en conexión ya existente seguido por un clic en el simbolo de "papelera" en la esquina superior derecha de la ventana que se abre</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;Borrar:&lt;/b&gt; Haga doble clic en concepto ya existente seguido por un clic en el simbolo de "papelera"  en la esquina superior derecha de la ventana que se abre</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;Actualizar:&lt;/b&gt; Haga doble clic en concepto ya existente</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;Crear:&lt;/b&gt; Haga clic simple en el área blanco de trazar</t>
+  </si>
+  <si>
+    <t>Inhalt von Verbindung verändern:</t>
+  </si>
+  <si>
+    <t>Cambiar contenido de conecciones:</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;Art und Stärke verändern:&lt;/b&gt; Benutzen Sie den Regler, um die dem Konzepts zugeordnete Emotion und deren Stärke zu verändern</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;Art und Stärke verändern:&lt;/b&gt; Benutzen Sie den Regler, um die Art der Verbindung (Verstärkung oder Hemmung) und die Stärke der Verbindung zu verändern</t>
+  </si>
+  <si>
+    <t>Richtung des Einflusses</t>
+  </si>
+  <si>
+    <t>Los conceptos se refuerzan mutualmente</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;Cambiar tipo e intensidad:&lt;/b&gt; Use el control deslizante para cambiar el de la conexión (reforzamineto o inhibición)</t>
+  </si>
+  <si>
+    <t>Conceptos se influyen mutualmente</t>
+  </si>
+  <si>
+    <t>Konzepte beeinflussen sich gegenseitig</t>
+  </si>
+  <si>
+    <t>Konzepte beeinflussen sich nur in eine Richtung von links nach rechts</t>
+  </si>
+  <si>
+    <t>Dirección de la influencia</t>
+  </si>
+  <si>
+    <t>La influencia entre los conceptos es unidireccional del concepto izquierdo al concepto derecho</t>
+  </si>
+  <si>
+    <t>Ein Klick auf die Buttons in der oberen Leiste bewirkt Folgendes:</t>
+  </si>
+  <si>
+    <t>Hacer clic en los botones de la barra superior lleva a los siguientes resultados:</t>
+  </si>
+  <si>
+    <t>Cognitive Affective Map speichern und Daten zum Server senden</t>
+  </si>
+  <si>
+    <t>Guardar Cognitive Affective Map y mandar datos al servidor</t>
+  </si>
+  <si>
+    <t>Cognitive Affective Map als Bild herunterladen</t>
+  </si>
+  <si>
+    <t>Cognitive Affective Map löschen und keine Daten werden zum Server gesendet</t>
+  </si>
+  <si>
+    <t>Borrar Cognitive Affective Map y no se envian datos al servidor</t>
+  </si>
+  <si>
+    <t>Legende</t>
+  </si>
+  <si>
+    <t>Leyenda</t>
+  </si>
+  <si>
+    <t>Konzept</t>
+  </si>
+  <si>
+    <t>Concepto</t>
+  </si>
+  <si>
+    <t>Verbindung</t>
+  </si>
+  <si>
+    <t>Conexión</t>
+  </si>
+  <si>
+    <t>Botones</t>
+  </si>
+  <si>
+    <t>Schnellhilfe öffen</t>
+  </si>
+  <si>
+    <t>Abrir referencia rápida</t>
+  </si>
+  <si>
+    <t>CAM auf Server speichern</t>
+  </si>
+  <si>
+    <t>Guardar CAM en el servidor</t>
+  </si>
+  <si>
+    <t>CAM als Bild speichern</t>
+  </si>
+  <si>
+    <t>Guardar CAM en formato de imagen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bajar Cognitive Affective Map en de imagen </t>
+  </si>
+  <si>
+    <t>CAM löschen</t>
+  </si>
+  <si>
+    <t>Borrar CAM</t>
+  </si>
+  <si>
+    <t>Inhalt:</t>
+  </si>
+  <si>
+    <t>Contenido:</t>
+  </si>
+  <si>
+    <t>Art und Stärke des Konzepts:</t>
+  </si>
+  <si>
+    <t>Tipo e intensidad del concepto</t>
+  </si>
+  <si>
+    <t>Konzept setzen als</t>
+  </si>
+  <si>
+    <t>Declarar que concepto es</t>
+  </si>
+  <si>
+    <t>Kommentar</t>
+  </si>
+  <si>
+    <t>Comentario</t>
+  </si>
+  <si>
+    <t>Art und Stärke der Verbindung</t>
+  </si>
+  <si>
+    <t>Tipo e intensidad de la conexión</t>
+  </si>
+  <si>
+    <t>Verstärkung</t>
+  </si>
+  <si>
+    <t>Konzepte verstärken einander</t>
+  </si>
+  <si>
+    <t>Hemmung</t>
+  </si>
+  <si>
+    <t>Reforzamiento</t>
+  </si>
+  <si>
+    <t>Inhibición</t>
+  </si>
+  <si>
+    <t>Richtung der Verbindung</t>
+  </si>
+  <si>
+    <t>Dirección de la conexión</t>
+  </si>
+  <si>
+    <t>La influencia entre los conceptos es en una sola direccion (unidireccional). Haga clic en el botón varias veces para cambiar la dirección</t>
+  </si>
+  <si>
+    <t>Konzepte beeinflussen sich nur in eine Richtung. Klicken Sie mehrfach auf den Button, um die Richtung der Beeinflussung zu ändern</t>
+  </si>
+  <si>
+    <t>Mueva su Cognitive Affective Map</t>
+  </si>
+  <si>
+    <t>Support</t>
+  </si>
+  <si>
+    <t>Inhibition</t>
+  </si>
+  <si>
+    <t>Por favor no cambie o minimize la pestaña hasta que haya teminado la sesión. Solo si hay una pausa.</t>
+  </si>
+  <si>
+    <t>Bitte wechseln oder minimieren Sie das Browserfenster nicht, während die Studie läuft, sondern nur, wenn es während der Studie eine Pause gibt.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -414,13 +769,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -437,6 +795,12 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <person displayName="Michael Gorki" id="{5B6E6112-2AAC-4F24-B99C-55612389F06D}" userId="Michael Gorki" providerId="None"/>
+</personList>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -700,12 +1064,23 @@
 </a:theme>
 </file>
 
+<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="C29" dT="2022-08-04T19:00:21.45" personId="{5B6E6112-2AAC-4F24-B99C-55612389F06D}" id="{A646E28B-97F6-4AE2-BCBC-80D63BDE895B}">
+    <text>I'm not sure whether "agreement or disagreement" might be an error here. I suppose it's more about the support or inhibion between concepts (that appear mentioned earlier in the table), right?</text>
+  </threadedComment>
+  <threadedComment ref="C50" dT="2022-08-04T19:41:58.14" personId="{5B6E6112-2AAC-4F24-B99C-55612389F06D}" id="{A5E30C12-9A09-4005-AC0C-695CE60E1B9A}">
+    <text>Should this realy be phrased as disagreement/agreement? For me personally disagreement/agreement would intuitively be pointing more to what I personally think or feel in terms of valence</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H54"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -713,7 +1088,9 @@
     <col min="1" max="1" width="20.140625" style="1" customWidth="1"/>
     <col min="2" max="2" width="16.5703125" style="2" customWidth="1"/>
     <col min="3" max="4" width="25.7109375" style="2" customWidth="1"/>
-    <col min="5" max="9" width="25.7109375" customWidth="1"/>
+    <col min="5" max="7" width="25.7109375" customWidth="1"/>
+    <col min="8" max="8" width="25.7109375" style="3" customWidth="1"/>
+    <col min="9" max="9" width="25.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -738,19 +1115,25 @@
       <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="105" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>119</v>
+      <c r="D2" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -763,8 +1146,14 @@
       <c r="C3" s="2" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+      <c r="D3" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="120" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -774,19 +1163,31 @@
       <c r="C4" s="2" t="s">
         <v>3</v>
       </c>
+      <c r="D4" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>121</v>
+      </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>110</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
@@ -795,6 +1196,12 @@
       </c>
       <c r="C6" s="2" t="s">
         <v>16</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -807,6 +1214,12 @@
       <c r="C7" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="D7" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>128</v>
+      </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
@@ -818,6 +1231,12 @@
       <c r="C8" s="2" t="s">
         <v>18</v>
       </c>
+      <c r="D8" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>129</v>
+      </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
@@ -829,6 +1248,12 @@
       <c r="C9" s="2" t="s">
         <v>19</v>
       </c>
+      <c r="D9" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>132</v>
+      </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
@@ -840,8 +1265,14 @@
       <c r="C10" s="2" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="D10" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>13</v>
       </c>
@@ -850,6 +1281,12 @@
       </c>
       <c r="C11" s="2" t="s">
         <v>21</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -862,8 +1299,14 @@
       <c r="C12" s="2" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D12" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>15</v>
       </c>
@@ -873,27 +1316,45 @@
       <c r="C13" s="2" t="s">
         <v>23</v>
       </c>
+      <c r="D13" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>138</v>
+      </c>
     </row>
     <row r="14" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C14" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="D14" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C15" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>116</v>
+      <c r="D15" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -906,8 +1367,14 @@
       <c r="C16" s="2" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="D16" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>26</v>
       </c>
@@ -917,8 +1384,14 @@
       <c r="C17" s="2" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="D17" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>27</v>
       </c>
@@ -928,8 +1401,14 @@
       <c r="C18" s="2" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="D18" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="105" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>28</v>
       </c>
@@ -939,8 +1418,14 @@
       <c r="C19" s="2" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="D19" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>32</v>
       </c>
@@ -950,8 +1435,14 @@
       <c r="C20" s="2" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="D20" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>34</v>
       </c>
@@ -961,8 +1452,14 @@
       <c r="C21" s="2" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="D21" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="105" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>35</v>
       </c>
@@ -972,8 +1469,14 @@
       <c r="C22" s="2" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="D22" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>36</v>
       </c>
@@ -983,8 +1486,14 @@
       <c r="C23" s="2" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="D23" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>37</v>
       </c>
@@ -994,8 +1503,14 @@
       <c r="C24" s="2" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="D24" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>38</v>
       </c>
@@ -1005,8 +1520,14 @@
       <c r="C25" s="2" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="D25" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="H25" s="3" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>39</v>
       </c>
@@ -1016,8 +1537,14 @@
       <c r="C26" s="2" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="D26" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="105" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>40</v>
       </c>
@@ -1027,8 +1554,14 @@
       <c r="C27" s="2" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="D27" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="H27" s="3" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>47</v>
       </c>
@@ -1038,8 +1571,14 @@
       <c r="C28" s="2" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+      <c r="D28" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="H28" s="3" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="120" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>48</v>
       </c>
@@ -1049,8 +1588,14 @@
       <c r="C29" s="2" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D29" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>49</v>
       </c>
@@ -1060,8 +1605,14 @@
       <c r="C30" s="2" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="D30" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="H30" s="3" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>50</v>
       </c>
@@ -1071,8 +1622,14 @@
       <c r="C31" s="2" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="D31" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="H31" s="3" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>51</v>
       </c>
@@ -1082,8 +1639,14 @@
       <c r="C32" s="2" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="D32" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="H32" s="3" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>60</v>
       </c>
@@ -1093,8 +1656,14 @@
       <c r="C33" s="2" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="D33" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="H33" s="3" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>65</v>
       </c>
@@ -1104,8 +1673,14 @@
       <c r="C34" s="2" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="D34" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="H34" s="3" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>66</v>
       </c>
@@ -1115,8 +1690,14 @@
       <c r="C35" s="2" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="D35" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="H35" s="3" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>67</v>
       </c>
@@ -1126,8 +1707,14 @@
       <c r="C36" s="2" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D36" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="H36" s="3" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>68</v>
       </c>
@@ -1137,8 +1724,14 @@
       <c r="C37" s="2" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D37" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="H37" s="3" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>73</v>
       </c>
@@ -1148,8 +1741,14 @@
       <c r="C38" s="2" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D38" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="H38" s="3" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>74</v>
       </c>
@@ -1159,8 +1758,14 @@
       <c r="C39" s="2" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D39" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="H39" s="3" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>75</v>
       </c>
@@ -1170,8 +1775,14 @@
       <c r="C40" s="2" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="D40" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="H40" s="3" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>82</v>
       </c>
@@ -1181,8 +1792,14 @@
       <c r="C41" s="2" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D41" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="H41" s="3" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>83</v>
       </c>
@@ -1192,8 +1809,14 @@
       <c r="C42" s="2" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D42" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="H42" s="3" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>84</v>
       </c>
@@ -1203,8 +1826,14 @@
       <c r="C43" s="2" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D43" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="H43" s="3" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>85</v>
       </c>
@@ -1214,8 +1843,14 @@
       <c r="C44" s="2" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D44" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="H44" s="3" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>91</v>
       </c>
@@ -1225,8 +1860,14 @@
       <c r="C45" s="2" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="46" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="D45" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="H45" s="3" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>96</v>
       </c>
@@ -1236,8 +1877,14 @@
       <c r="C46" s="2" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D46" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="H46" s="3" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>97</v>
       </c>
@@ -1247,8 +1894,14 @@
       <c r="C47" s="2" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D47" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="H47" s="3" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>98</v>
       </c>
@@ -1258,8 +1911,14 @@
       <c r="C48" s="2" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="49" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="D48" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="H48" s="3" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>100</v>
       </c>
@@ -1269,43 +1928,67 @@
       <c r="C49" s="2" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="50" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="D49" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="H49" s="3" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>99</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+        <v>219</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="H50" s="3" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>99</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+        <v>220</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="H51" s="3" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>99</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+        <v>102</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="H52" s="3" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>99</v>
@@ -1313,20 +1996,33 @@
       <c r="C53" s="2" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="54" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="D53" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="H53" s="3" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" ht="90" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>99</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="H54" s="3" t="s">
+        <v>216</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/config/languageFile.xlsx
+++ b/config/languageFile.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DATEN\PHD\CAMtools_CAMEL\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{05D99CFF-6FD7-4FE9-B530-D2734160B800}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7D43200-CF54-4522-9EEB-33DEF697B261}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -43,7 +43,24 @@
         </r>
       </text>
     </comment>
-    <comment ref="C50" authorId="1" shapeId="0" xr:uid="{A5E30C12-9A09-4005-AC0C-695CE60E1B9A}">
+    <comment ref="C30" authorId="0" shapeId="0" xr:uid="{951FEFAD-8A39-472C-B45E-1E8B581A6A94}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Kommentarthread]
+Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
+Kommentar:
+    I'm not sure whether "agreement or disagreement" might be an error here. I suppose it's more about the support or inhibion between concepts (that appear mentioned earlier in the table), right?</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C54" authorId="1" shapeId="0" xr:uid="{A5E30C12-9A09-4005-AC0C-695CE60E1B9A}">
       <text>
         <r>
           <rPr>
@@ -65,7 +82,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="239">
   <si>
     <t>english</t>
   </si>
@@ -160,9 +177,6 @@
     <t>&lt;b&gt;Update:&lt;/b&gt; Double click on existing concept</t>
   </si>
   <si>
-    <t>&lt;b&gt;Delete:&lt;/b&gt; Double click on existing concept and press on the “trash bin” symbol top right</t>
-  </si>
-  <si>
     <t>qr_concept_20</t>
   </si>
   <si>
@@ -199,9 +213,6 @@
     <t>&lt;b&gt;Change type and strength:&lt;/b&gt; Use the slider to change the emotional attribution and strength of the concept</t>
   </si>
   <si>
-    <t>&lt;b&gt;Add comment:&lt;/b&gt; type comment in the “Comment” section</t>
-  </si>
-  <si>
     <t>&lt;b&gt;Create:&lt;/b&gt; Click on two concepts to draw a connection</t>
   </si>
   <si>
@@ -253,15 +264,6 @@
     <t xml:space="preserve">Clicking on the buttons in the upper bar leads to the following results: </t>
   </si>
   <si>
-    <t>save Cognitive Affective Map and send data to the server</t>
-  </si>
-  <si>
-    <t>download Cognitive Affective Map as a picture</t>
-  </si>
-  <si>
-    <t>delete Cognitive Affective Map and no data will be send to the server</t>
-  </si>
-  <si>
     <t>qr_buttons_11</t>
   </si>
   <si>
@@ -388,12 +390,6 @@
     <t>Concepts influence each other in a one-sided direction. Press button multiple times to change direction</t>
   </si>
   <si>
-    <t>cd_05</t>
-  </si>
-  <si>
-    <t>cd_06</t>
-  </si>
-  <si>
     <t>qr_top</t>
   </si>
   <si>
@@ -601,21 +597,6 @@
     <t>Hacer clic en los botones de la barra superior lleva a los siguientes resultados:</t>
   </si>
   <si>
-    <t>Cognitive Affective Map speichern und Daten zum Server senden</t>
-  </si>
-  <si>
-    <t>Guardar Cognitive Affective Map y mandar datos al servidor</t>
-  </si>
-  <si>
-    <t>Cognitive Affective Map als Bild herunterladen</t>
-  </si>
-  <si>
-    <t>Cognitive Affective Map löschen und keine Daten werden zum Server gesendet</t>
-  </si>
-  <si>
-    <t>Borrar Cognitive Affective Map y no se envian datos al servidor</t>
-  </si>
-  <si>
     <t>Legende</t>
   </si>
   <si>
@@ -655,9 +636,6 @@
     <t>Guardar CAM en formato de imagen</t>
   </si>
   <si>
-    <t xml:space="preserve">Bajar Cognitive Affective Map en de imagen </t>
-  </si>
-  <si>
     <t>CAM löschen</t>
   </si>
   <si>
@@ -734,6 +712,93 @@
   </si>
   <si>
     <t>Bitte wechseln oder minimieren Sie das Browserfenster nicht, während die Studie läuft, sondern nur, wenn es während der Studie eine Pause gibt.</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;Delete:&lt;/b&gt; Double click on existing concept and press on the "trash bin" symbol top right</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;Add comment:&lt;/b&gt; type comment in the "Comment" section</t>
+  </si>
+  <si>
+    <t>qr_connection_21a</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;Change strength:&lt;/b&gt; Use the slider to change the strength of the connection</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;Stärke verändern:&lt;/b&gt; Benutzen Sie den Regler, um die Stärke der Verbindung zu verändern</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;Cambiar intensidad:&lt;/b&gt; Use el control deslizante para cambiar el de la conexión (reforzamineto)</t>
+  </si>
+  <si>
+    <t>Delete Concept</t>
+  </si>
+  <si>
+    <t>Konzept löschen</t>
+  </si>
+  <si>
+    <t>Borrar concepto</t>
+  </si>
+  <si>
+    <t>cd_05button</t>
+  </si>
+  <si>
+    <t>cd_06button</t>
+  </si>
+  <si>
+    <t>Strength of Connection:</t>
+  </si>
+  <si>
+    <t>cd_07buttonDelete</t>
+  </si>
+  <si>
+    <t>Delete Connector</t>
+  </si>
+  <si>
+    <t>Verbindung löschen</t>
+  </si>
+  <si>
+    <t>Borrar conexión</t>
+  </si>
+  <si>
+    <t>nd_05buttonDelete</t>
+  </si>
+  <si>
+    <t>download Cognitive-Affective Map as a picture</t>
+  </si>
+  <si>
+    <t>delete Cognitive-Affective Map and no data will be send to the server</t>
+  </si>
+  <si>
+    <t>save Cognitive-Affective Map and send data to the server</t>
+  </si>
+  <si>
+    <t>Cognitive-Affective Map speichern und Daten zum Server senden</t>
+  </si>
+  <si>
+    <t>Cognitive-Affective Map als Bild herunterladen</t>
+  </si>
+  <si>
+    <t>Cognitive-Affective Map löschen und keine Daten werden zum Server gesendet</t>
+  </si>
+  <si>
+    <t>Borrar Cognitive-Affective Map y no se envian datos al servidor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bajar Cognitive-Affective Map en de imagen </t>
+  </si>
+  <si>
+    <t>Guardar Cognitive-Affective Map y mandar datos al servidor</t>
+  </si>
+  <si>
+    <t>cd_01a</t>
+  </si>
+  <si>
+    <t>Stärke der Verbindung:</t>
+  </si>
+  <si>
+    <t>Intensidad de la conexión</t>
   </si>
 </sst>
 </file>
@@ -749,12 +814,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -769,7 +840,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -778,6 +849,16 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1077,10 +1158,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H54"/>
+  <dimension ref="A1:H58"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F53" sqref="F53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1095,10 +1176,10 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>0</v>
@@ -1107,7 +1188,7 @@
         <v>1</v>
       </c>
       <c r="E1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F1" t="s">
         <v>5</v>
@@ -1121,36 +1202,36 @@
     </row>
     <row r="2" spans="1:8" ht="105" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>222</v>
+        <v>209</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>119</v>
+        <v>208</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="120" x14ac:dyDescent="0.25">
@@ -1158,33 +1239,33 @@
         <v>4</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -1198,10 +1279,10 @@
         <v>16</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -1215,10 +1296,10 @@
         <v>17</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -1232,10 +1313,10 @@
         <v>18</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -1249,10 +1330,10 @@
         <v>19</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -1266,10 +1347,10 @@
         <v>20</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="60" x14ac:dyDescent="0.25">
@@ -1283,10 +1364,10 @@
         <v>21</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -1300,10 +1381,10 @@
         <v>22</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>210</v>
+        <v>197</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -1317,44 +1398,44 @@
         <v>23</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>218</v>
+        <v>205</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -1368,10 +1449,10 @@
         <v>25</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -1385,10 +1466,10 @@
         <v>29</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -1402,10 +1483,10 @@
         <v>30</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="105" x14ac:dyDescent="0.25">
@@ -1416,608 +1497,676 @@
         <v>2</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>31</v>
+        <v>210</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C20" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B20" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>33</v>
-      </c>
       <c r="D20" s="2" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="105" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>44</v>
+        <v>211</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="H25" s="3" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="H26" s="3" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="105" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>31</v>
+        <v>210</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="H27" s="3" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="H28" s="3" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="120" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="H30" s="3" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="H31" s="3" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B29" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C29" s="2" t="s">
+      <c r="B32" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C32" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="D29" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
+      <c r="D32" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="H32" s="3" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B30" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C30" s="2" t="s">
+      <c r="B33" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C33" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="D30" s="2" t="s">
+      <c r="D33" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="H33" s="3" t="s">
         <v>168</v>
-      </c>
-      <c r="H30" s="3" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="H31" s="3" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="H32" s="3" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A33" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="H33" s="3" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C34" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="H34" s="3" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="H35" s="3" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="H36" s="3" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="D34" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="H34" s="3" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A35" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="H35" s="3" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="A36" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="H36" s="3" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="1" t="s">
-        <v>68</v>
-      </c>
       <c r="B37" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>69</v>
+        <v>228</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>183</v>
+        <v>232</v>
       </c>
       <c r="H37" s="3" t="s">
-        <v>184</v>
+        <v>233</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>185</v>
+        <v>171</v>
       </c>
       <c r="H38" s="3" t="s">
-        <v>186</v>
+        <v>172</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>187</v>
+        <v>173</v>
       </c>
       <c r="H39" s="3" t="s">
-        <v>188</v>
+        <v>174</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="H40" s="3" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="H41" s="3" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="H42" s="3" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B43" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="B40" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="H40" s="3" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A41" s="1" t="s">
+      <c r="C43" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="B41" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="H41" s="3" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" s="1" t="s">
+      <c r="D43" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="H43" s="3" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C44" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="B42" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="H42" s="3" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A43" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="H43" s="3" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>89</v>
-      </c>
       <c r="D44" s="2" t="s">
-        <v>197</v>
+        <v>182</v>
       </c>
       <c r="H44" s="3" t="s">
-        <v>198</v>
+        <v>183</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="H45" s="3" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="H46" s="3" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="B45" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="H45" s="3" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A46" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="H46" s="3" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A47" s="1" t="s">
-        <v>97</v>
-      </c>
       <c r="B47" s="2" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>203</v>
+        <v>188</v>
       </c>
       <c r="H47" s="3" t="s">
-        <v>204</v>
+        <v>189</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="B48" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="H48" s="3" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C49" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="C48" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="H48" s="3" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A49" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="B49" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>101</v>
-      </c>
       <c r="D49" s="2" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="H49" s="3" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>103</v>
+        <v>226</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>99</v>
+        <v>85</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="H50" s="3" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
     </row>
     <row r="51" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>220</v>
+        <v>96</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>211</v>
+        <v>194</v>
       </c>
       <c r="H51" s="3" t="s">
-        <v>213</v>
+        <v>195</v>
       </c>
     </row>
     <row r="52" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>105</v>
+        <v>236</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>102</v>
+        <v>221</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>214</v>
+        <v>237</v>
       </c>
       <c r="H52" s="3" t="s">
-        <v>215</v>
+        <v>238</v>
       </c>
     </row>
     <row r="53" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="B53" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="H53" s="3" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="C53" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="D53" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="H53" s="3" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" ht="90" x14ac:dyDescent="0.25">
-      <c r="A54" s="1" t="s">
-        <v>108</v>
-      </c>
       <c r="B54" s="2" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>106</v>
+        <v>206</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>217</v>
+        <v>196</v>
       </c>
       <c r="H54" s="3" t="s">
-        <v>216</v>
+        <v>199</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="H55" s="3" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="H56" s="3" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+      <c r="A57" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="H57" s="3" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A58" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="H58" s="3" t="s">
+        <v>225</v>
       </c>
     </row>
   </sheetData>

--- a/config/languageFile.xlsx
+++ b/config/languageFile.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20392"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20398"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DATEN\PHD\labjsSoftware\Wilhelm Studie\CAM Studie\config\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DATEN\PHD\CAMtools_CAMEL\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B99F87E3-7EE2-4CD2-BACF-749D7F4790B4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F449DE3-7F86-44F4-ADC2-541AB7725886}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -82,7 +82,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="308">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="326">
   <si>
     <t>english</t>
   </si>
@@ -1006,6 +1006,60 @@
   </si>
   <si>
     <t>Sie können keine vordefinierten Verbindungen löschen.</t>
+  </si>
+  <si>
+    <t>confirmSaving_01_title</t>
+  </si>
+  <si>
+    <t>confirmSaving_02_text</t>
+  </si>
+  <si>
+    <t>Elements confirm saving CAM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Please confirm by pressing  "Yes" that you want to save your Cognitive-Affective Map. You will be redirected to the next part of the study and you will not be able to change your Cognitive-Affective Map anymore. </t>
+  </si>
+  <si>
+    <t>Confirm Saving</t>
+  </si>
+  <si>
+    <t>Do you really want to delete your CAM? No data will be saved on the server.</t>
+  </si>
+  <si>
+    <t>confirmDeleting_01text</t>
+  </si>
+  <si>
+    <t>confirmDeleting_02message</t>
+  </si>
+  <si>
+    <t>Elements confirm deleting CAM</t>
+  </si>
+  <si>
+    <t>You CAM has been deleted. No data will be saved on the server. Default CAM has been restored.</t>
+  </si>
+  <si>
+    <t>yesButton</t>
+  </si>
+  <si>
+    <t>noButton</t>
+  </si>
+  <si>
+    <t>yes Button</t>
+  </si>
+  <si>
+    <t>no Button</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>closeButton</t>
+  </si>
+  <si>
+    <t>close Button</t>
   </si>
 </sst>
 </file>
@@ -1021,18 +1075,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14999847407452621"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -1047,25 +1095,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1365,10 +1404,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H81"/>
+  <dimension ref="A1:H88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A79" sqref="A79"/>
+    <sheetView tabSelected="1" topLeftCell="A73" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H93" sqref="H93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1376,9 +1415,10 @@
     <col min="1" max="1" width="29.140625" style="1" customWidth="1"/>
     <col min="2" max="2" width="16.5703125" style="2" customWidth="1"/>
     <col min="3" max="4" width="25.7109375" style="2" customWidth="1"/>
-    <col min="5" max="7" width="25.7109375" customWidth="1"/>
-    <col min="8" max="8" width="25.7109375" style="3" customWidth="1"/>
-    <col min="9" max="9" width="25.7109375" customWidth="1"/>
+    <col min="5" max="7" width="25.7109375" style="3" customWidth="1"/>
+    <col min="8" max="8" width="25.7109375" style="4" customWidth="1"/>
+    <col min="9" max="9" width="25.7109375" style="3" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -1394,16 +1434,16 @@
       <c r="D1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="4" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1420,24 +1460,24 @@
       <c r="D2" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="4" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="3" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="H3" s="7" t="s">
+      <c r="H3" s="4" t="s">
         <v>112</v>
       </c>
     </row>
@@ -1454,7 +1494,7 @@
       <c r="D4" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="H4" s="4" t="s">
         <v>114</v>
       </c>
     </row>
@@ -1471,7 +1511,7 @@
       <c r="D5" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="H5" s="4" t="s">
         <v>115</v>
       </c>
     </row>
@@ -1488,7 +1528,7 @@
       <c r="D6" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="H6" s="3" t="s">
+      <c r="H6" s="4" t="s">
         <v>118</v>
       </c>
     </row>
@@ -1505,7 +1545,7 @@
       <c r="D7" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="H7" s="3" t="s">
+      <c r="H7" s="4" t="s">
         <v>121</v>
       </c>
     </row>
@@ -1522,7 +1562,7 @@
       <c r="D8" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="H8" s="3" t="s">
+      <c r="H8" s="4" t="s">
         <v>122</v>
       </c>
     </row>
@@ -1539,7 +1579,7 @@
       <c r="D9" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="H9" s="3" t="s">
+      <c r="H9" s="4" t="s">
         <v>125</v>
       </c>
     </row>
@@ -1556,7 +1596,7 @@
       <c r="D10" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="H10" s="3" t="s">
+      <c r="H10" s="4" t="s">
         <v>126</v>
       </c>
     </row>
@@ -1573,7 +1613,7 @@
       <c r="D11" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="H11" s="3" t="s">
+      <c r="H11" s="4" t="s">
         <v>128</v>
       </c>
     </row>
@@ -1590,7 +1630,7 @@
       <c r="D12" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="H12" s="3" t="s">
+      <c r="H12" s="4" t="s">
         <v>162</v>
       </c>
     </row>
@@ -1607,7 +1647,7 @@
       <c r="D13" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="H13" s="3" t="s">
+      <c r="H13" s="4" t="s">
         <v>131</v>
       </c>
     </row>
@@ -1624,7 +1664,7 @@
       <c r="D14" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="H14" s="3" t="s">
+      <c r="H14" s="4" t="s">
         <v>205</v>
       </c>
     </row>
@@ -1641,7 +1681,7 @@
       <c r="D15" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="H15" s="3" t="s">
+      <c r="H15" s="4" t="s">
         <v>133</v>
       </c>
     </row>
@@ -1658,7 +1698,7 @@
       <c r="D16" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="H16" s="3" t="s">
+      <c r="H16" s="4" t="s">
         <v>135</v>
       </c>
     </row>
@@ -1675,7 +1715,7 @@
       <c r="D17" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="H17" s="3" t="s">
+      <c r="H17" s="4" t="s">
         <v>156</v>
       </c>
     </row>
@@ -1692,7 +1732,7 @@
       <c r="D18" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="H18" s="3" t="s">
+      <c r="H18" s="4" t="s">
         <v>155</v>
       </c>
     </row>
@@ -1709,7 +1749,7 @@
       <c r="D19" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="H19" s="3" t="s">
+      <c r="H19" s="4" t="s">
         <v>154</v>
       </c>
     </row>
@@ -1726,7 +1766,7 @@
       <c r="D20" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="H20" s="3" t="s">
+      <c r="H20" s="4" t="s">
         <v>138</v>
       </c>
     </row>
@@ -1743,7 +1783,7 @@
       <c r="D21" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="H21" s="3" t="s">
+      <c r="H21" s="4" t="s">
         <v>141</v>
       </c>
     </row>
@@ -1760,7 +1800,7 @@
       <c r="D22" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="H22" s="3" t="s">
+      <c r="H22" s="4" t="s">
         <v>143</v>
       </c>
     </row>
@@ -1777,7 +1817,7 @@
       <c r="D23" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="H23" s="3" t="s">
+      <c r="H23" s="4" t="s">
         <v>145</v>
       </c>
     </row>
@@ -1794,7 +1834,7 @@
       <c r="D24" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="H24" s="3" t="s">
+      <c r="H24" s="4" t="s">
         <v>147</v>
       </c>
     </row>
@@ -1811,7 +1851,7 @@
       <c r="D25" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="H25" s="3" t="s">
+      <c r="H25" s="4" t="s">
         <v>149</v>
       </c>
     </row>
@@ -1828,7 +1868,7 @@
       <c r="D26" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="H26" s="3" t="s">
+      <c r="H26" s="4" t="s">
         <v>151</v>
       </c>
     </row>
@@ -1845,7 +1885,7 @@
       <c r="D27" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="H27" s="3" t="s">
+      <c r="H27" s="4" t="s">
         <v>153</v>
       </c>
     </row>
@@ -1862,7 +1902,7 @@
       <c r="D28" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="H28" s="3" t="s">
+      <c r="H28" s="4" t="s">
         <v>158</v>
       </c>
     </row>
@@ -1879,7 +1919,7 @@
       <c r="D29" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="H29" s="3" t="s">
+      <c r="H29" s="4" t="s">
         <v>163</v>
       </c>
     </row>
@@ -1896,7 +1936,7 @@
       <c r="D30" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="H30" s="3" t="s">
+      <c r="H30" s="4" t="s">
         <v>215</v>
       </c>
     </row>
@@ -1913,7 +1953,7 @@
       <c r="D31" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="H31" s="3" t="s">
+      <c r="H31" s="4" t="s">
         <v>167</v>
       </c>
     </row>
@@ -1930,7 +1970,7 @@
       <c r="D32" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="H32" s="3" t="s">
+      <c r="H32" s="4" t="s">
         <v>164</v>
       </c>
     </row>
@@ -1947,7 +1987,7 @@
       <c r="D33" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="H33" s="3" t="s">
+      <c r="H33" s="4" t="s">
         <v>168</v>
       </c>
     </row>
@@ -1964,7 +2004,7 @@
       <c r="D34" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="H34" s="3" t="s">
+      <c r="H34" s="4" t="s">
         <v>170</v>
       </c>
     </row>
@@ -1981,7 +2021,7 @@
       <c r="D35" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="H35" s="3" t="s">
+      <c r="H35" s="4" t="s">
         <v>235</v>
       </c>
     </row>
@@ -1998,7 +2038,7 @@
       <c r="D36" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="H36" s="3" t="s">
+      <c r="H36" s="4" t="s">
         <v>234</v>
       </c>
     </row>
@@ -2015,7 +2055,7 @@
       <c r="D37" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="H37" s="3" t="s">
+      <c r="H37" s="4" t="s">
         <v>233</v>
       </c>
     </row>
@@ -2032,7 +2072,7 @@
       <c r="D38" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="H38" s="3" t="s">
+      <c r="H38" s="4" t="s">
         <v>172</v>
       </c>
     </row>
@@ -2049,7 +2089,7 @@
       <c r="D39" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="H39" s="3" t="s">
+      <c r="H39" s="4" t="s">
         <v>174</v>
       </c>
     </row>
@@ -2066,7 +2106,7 @@
       <c r="D40" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="H40" s="3" t="s">
+      <c r="H40" s="4" t="s">
         <v>176</v>
       </c>
     </row>
@@ -2083,7 +2123,7 @@
       <c r="D41" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="H41" s="3" t="s">
+      <c r="H41" s="4" t="s">
         <v>177</v>
       </c>
     </row>
@@ -2100,7 +2140,7 @@
       <c r="D42" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="H42" s="3" t="s">
+      <c r="H42" s="4" t="s">
         <v>179</v>
       </c>
     </row>
@@ -2117,7 +2157,7 @@
       <c r="D43" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="H43" s="3" t="s">
+      <c r="H43" s="4" t="s">
         <v>181</v>
       </c>
     </row>
@@ -2134,7 +2174,7 @@
       <c r="D44" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="H44" s="3" t="s">
+      <c r="H44" s="4" t="s">
         <v>183</v>
       </c>
     </row>
@@ -2151,7 +2191,7 @@
       <c r="D45" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="H45" s="3" t="s">
+      <c r="H45" s="4" t="s">
         <v>185</v>
       </c>
     </row>
@@ -2168,7 +2208,7 @@
       <c r="D46" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="H46" s="3" t="s">
+      <c r="H46" s="4" t="s">
         <v>187</v>
       </c>
     </row>
@@ -2185,7 +2225,7 @@
       <c r="D47" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="H47" s="3" t="s">
+      <c r="H47" s="4" t="s">
         <v>189</v>
       </c>
     </row>
@@ -2202,7 +2242,7 @@
       <c r="D48" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="H48" s="3" t="s">
+      <c r="H48" s="4" t="s">
         <v>191</v>
       </c>
     </row>
@@ -2219,7 +2259,7 @@
       <c r="D49" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="H49" s="3" t="s">
+      <c r="H49" s="4" t="s">
         <v>193</v>
       </c>
     </row>
@@ -2236,7 +2276,7 @@
       <c r="D50" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="H50" s="3" t="s">
+      <c r="H50" s="4" t="s">
         <v>218</v>
       </c>
     </row>
@@ -2253,7 +2293,7 @@
       <c r="D51" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="H51" s="3" t="s">
+      <c r="H51" s="4" t="s">
         <v>195</v>
       </c>
     </row>
@@ -2270,7 +2310,7 @@
       <c r="D52" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="H52" s="3" t="s">
+      <c r="H52" s="4" t="s">
         <v>238</v>
       </c>
     </row>
@@ -2287,7 +2327,7 @@
       <c r="D53" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="H53" s="3" t="s">
+      <c r="H53" s="4" t="s">
         <v>200</v>
       </c>
     </row>
@@ -2304,7 +2344,7 @@
       <c r="D54" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="H54" s="3" t="s">
+      <c r="H54" s="4" t="s">
         <v>199</v>
       </c>
     </row>
@@ -2321,7 +2361,7 @@
       <c r="D55" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="H55" s="3" t="s">
+      <c r="H55" s="4" t="s">
         <v>202</v>
       </c>
     </row>
@@ -2338,7 +2378,7 @@
       <c r="D56" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="H56" s="3" t="s">
+      <c r="H56" s="4" t="s">
         <v>164</v>
       </c>
     </row>
@@ -2355,7 +2395,7 @@
       <c r="D57" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="H57" s="3" t="s">
+      <c r="H57" s="4" t="s">
         <v>203</v>
       </c>
     </row>
@@ -2372,7 +2412,7 @@
       <c r="D58" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="H58" s="3" t="s">
+      <c r="H58" s="4" t="s">
         <v>225</v>
       </c>
     </row>
@@ -2696,6 +2736,83 @@
       </c>
       <c r="D81" s="2" t="s">
         <v>307</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A82" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" ht="135" x14ac:dyDescent="0.25">
+      <c r="A83" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A84" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A85" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A86" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A87" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A88" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>74</v>
       </c>
     </row>
   </sheetData>

--- a/config/languageFile.xlsx
+++ b/config/languageFile.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DATEN\PHD\CAMtools_CAMEL\config\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fenn\Nextcloud\Artikel Cognitive Affective Maps Tools\CAM tools\CAMtools_CAMEL\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F449DE3-7F86-44F4-ADC2-541AB7725886}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5498B9D-4213-443A-8CD7-1D5663C26A09}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,10 +23,11 @@
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>tc={A646E28B-97F6-4AE2-BCBC-80D63BDE895B}</author>
+    <author>tc={A646E28B-97F6-4AE3-BCBC-80D63BDE895B}</author>
     <author>tc={A5E30C12-9A09-4005-AC0C-695CE60E1B9A}</author>
   </authors>
   <commentList>
-    <comment ref="C29" authorId="0" shapeId="0" xr:uid="{A646E28B-97F6-4AE2-BCBC-80D63BDE895B}">
+    <comment ref="C29" authorId="0" shapeId="0" xr:uid="{4B83D189-86B8-4BB4-A68C-2F4A3D5DBC62}">
       <text>
         <r>
           <rPr>
@@ -43,7 +44,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C30" authorId="0" shapeId="0" xr:uid="{951FEFAD-8A39-472C-B45E-1E8B581A6A94}">
+    <comment ref="C30" authorId="1" shapeId="0" xr:uid="{1E154B0F-DC76-4AB0-8F06-5AF257EE8CD0}">
       <text>
         <r>
           <rPr>
@@ -60,7 +61,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C54" authorId="1" shapeId="0" xr:uid="{A5E30C12-9A09-4005-AC0C-695CE60E1B9A}">
+    <comment ref="C54" authorId="2" shapeId="0" xr:uid="{FC9A7347-D4AB-4E85-A198-88287572EDD4}">
       <text>
         <r>
           <rPr>
@@ -82,7 +83,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="326">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="363">
   <si>
     <t>english</t>
   </si>
@@ -966,9 +967,6 @@
     <t>Sie können den Inhalt der vordefinierten Konzepte nicht ändern.</t>
   </si>
   <si>
-    <t>Um den ambivalenten Begriff wieder zu ändern, deaktivieren Sie bitte das Kontrollkästchen.</t>
-  </si>
-  <si>
     <t>Elements dialog warnings (edw)</t>
   </si>
   <si>
@@ -1017,9 +1015,6 @@
     <t>Elements confirm saving CAM</t>
   </si>
   <si>
-    <t xml:space="preserve">Please confirm by pressing  "Yes" that you want to save your Cognitive-Affective Map. You will be redirected to the next part of the study and you will not be able to change your Cognitive-Affective Map anymore. </t>
-  </si>
-  <si>
     <t>Confirm Saving</t>
   </si>
   <si>
@@ -1060,6 +1055,123 @@
   </si>
   <si>
     <t>close Button</t>
+  </si>
+  <si>
+    <t>Por favor regrese a su Cognitive-Affective Map y agregue texto a los conceptos aún vacíos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> concepto(s) está(n) vacío(s).</t>
+  </si>
+  <si>
+    <t>Por favor regrese a su Cognitive-Affective Map y añada conceptos adicionales.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Por favor traze por lo menos </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> conceptos.</t>
+  </si>
+  <si>
+    <t>Por favor regrese a su Cognitive-Affective Map y añada conecciones adicionales.</t>
+  </si>
+  <si>
+    <t>Por favor conecte todos los conceptos dentro de su Cognitive-Affective Map.</t>
+  </si>
+  <si>
+    <t>Por favor conecte todos sus</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> distintos grupos de conceptos dentro de su Cognitive-Affective Map.</t>
+  </si>
+  <si>
+    <t>Los datos de su Cognitive-Affective Map se han mandado al servidor. Gracias por participación! Usted será llevado al final de la sesión o a su última parte.</t>
+  </si>
+  <si>
+    <t>Usted habría mandado los datos de su CAM al servidor con éxito. Para guardar sus datos de forma permanente, por favor use nuestro panel de administración o aloje C.A.M.E.L. en su propio servidor.</t>
+  </si>
+  <si>
+    <t>En cambio, por favor traze varios conceptos conectados.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Por favor no use más que </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> palabras para un solo concepto!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> caracteres para un solo concepto!</t>
+  </si>
+  <si>
+    <t>En cambio, por favor elíja conceptos diferentes.</t>
+  </si>
+  <si>
+    <t>No se pueden cambiar los conceptos predefinidos.</t>
+  </si>
+  <si>
+    <t>Um das ambivalente Konzept wieder zu ändern, deaktivieren Sie bitte das Kontrollkästchen.</t>
+  </si>
+  <si>
+    <t>Para cambiar el concepto ambivalente otra vez, desmarque la casilla.</t>
+  </si>
+  <si>
+    <t>No se pueden borrar los conceptos predefinidos.</t>
+  </si>
+  <si>
+    <t>En cambio, por favor elíja coneciones diferentes.</t>
+  </si>
+  <si>
+    <t>No se pueden borrar las coneciones predefinidos.</t>
+  </si>
+  <si>
+    <t>Speichern bestätigen</t>
+  </si>
+  <si>
+    <t>Confirmar guardar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Please confirm by pressing  "Yes" that you want to save your Cognitive-Affective Map. You will be redirected to the next part of the study and you will &lt;b&gt;not&lt;/b&gt; be able to change your Cognitive-Affective Map anymore. </t>
+  </si>
+  <si>
+    <t>Bitte bestätigen Sie mit einem Klick auf "Ja", dass Sie die Cognitive-Affective Map speichern wollen. Sie werden zum nächsten Teil der Studie weitergeleitet und können Ihre Cognitive-Affective Map &lt;b&gt;nicht&lt;/b&gt; mehr verändern.</t>
+  </si>
+  <si>
+    <t>Por favor confirme con un clic en "Sí" que desea guardar el Cognitive-Affective Map. En este caso, usted será llevado a la siguiente parte de la sesión y ya &lt;b&gt;no&lt;/b&gt; mas podrá cambiar su Cognitive-Affective Map.</t>
+  </si>
+  <si>
+    <t>Möchten Sie Ihre CAM wirklich löschen? In diesem Fall werden keine Daten auf dem Server gespeichert.</t>
+  </si>
+  <si>
+    <t>Desea usted borrar su CAM? En este caso no se guardarán datos en el servidor.</t>
+  </si>
+  <si>
+    <t>Ihre CAM wurde gelöscht. Es werden keine Daten auf dem Server gespeichert. Die voreingestellte CAM wurde wiederhergestellt.</t>
+  </si>
+  <si>
+    <t>Su CAM ha sido borrado. No se han guardado datos en el servidor. El CAM predefinido ha sido restaurado.</t>
+  </si>
+  <si>
+    <t>Ja</t>
+  </si>
+  <si>
+    <t>Sí</t>
+  </si>
+  <si>
+    <t>Nein</t>
+  </si>
+  <si>
+    <t>continue Button (fullscreen)</t>
+  </si>
+  <si>
+    <t>continueButtonFullscreen</t>
+  </si>
+  <si>
+    <t>click to continue</t>
+  </si>
+  <si>
+    <t>zum Fortfahren klicken</t>
+  </si>
+  <si>
+    <t>haga clic para continuar</t>
   </si>
 </sst>
 </file>
@@ -1095,16 +1207,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1404,10 +1515,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H88"/>
+  <dimension ref="A1:I89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H93" sqref="H93"/>
+    <sheetView tabSelected="1" topLeftCell="A79" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A89" sqref="A89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1415,10 +1526,9 @@
     <col min="1" max="1" width="29.140625" style="1" customWidth="1"/>
     <col min="2" max="2" width="16.5703125" style="2" customWidth="1"/>
     <col min="3" max="4" width="25.7109375" style="2" customWidth="1"/>
-    <col min="5" max="7" width="25.7109375" style="3" customWidth="1"/>
-    <col min="8" max="8" width="25.7109375" style="4" customWidth="1"/>
-    <col min="9" max="9" width="25.7109375" style="3" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="3"/>
+    <col min="5" max="7" width="25.7109375" customWidth="1"/>
+    <col min="8" max="8" width="25.7109375" style="3" customWidth="1"/>
+    <col min="9" max="9" width="25.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -1434,16 +1544,16 @@
       <c r="D1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" t="s">
         <v>57</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1460,7 +1570,7 @@
       <c r="D2" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="3" t="s">
         <v>208</v>
       </c>
     </row>
@@ -1477,7 +1587,7 @@
       <c r="D3" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="H3" s="3" t="s">
         <v>112</v>
       </c>
     </row>
@@ -1494,7 +1604,7 @@
       <c r="D4" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="H4" s="4" t="s">
+      <c r="H4" s="3" t="s">
         <v>114</v>
       </c>
     </row>
@@ -1511,7 +1621,7 @@
       <c r="D5" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="H5" s="4" t="s">
+      <c r="H5" s="3" t="s">
         <v>115</v>
       </c>
     </row>
@@ -1528,7 +1638,7 @@
       <c r="D6" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="H6" s="4" t="s">
+      <c r="H6" s="3" t="s">
         <v>118</v>
       </c>
     </row>
@@ -1545,7 +1655,7 @@
       <c r="D7" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="H7" s="4" t="s">
+      <c r="H7" s="3" t="s">
         <v>121</v>
       </c>
     </row>
@@ -1562,7 +1672,7 @@
       <c r="D8" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="H8" s="4" t="s">
+      <c r="H8" s="3" t="s">
         <v>122</v>
       </c>
     </row>
@@ -1579,7 +1689,7 @@
       <c r="D9" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="H9" s="4" t="s">
+      <c r="H9" s="3" t="s">
         <v>125</v>
       </c>
     </row>
@@ -1596,7 +1706,7 @@
       <c r="D10" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="H10" s="4" t="s">
+      <c r="H10" s="3" t="s">
         <v>126</v>
       </c>
     </row>
@@ -1613,7 +1723,7 @@
       <c r="D11" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="H11" s="4" t="s">
+      <c r="H11" s="3" t="s">
         <v>128</v>
       </c>
     </row>
@@ -1630,7 +1740,7 @@
       <c r="D12" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="H12" s="4" t="s">
+      <c r="H12" s="3" t="s">
         <v>162</v>
       </c>
     </row>
@@ -1647,7 +1757,7 @@
       <c r="D13" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="H13" s="4" t="s">
+      <c r="H13" s="3" t="s">
         <v>131</v>
       </c>
     </row>
@@ -1664,7 +1774,7 @@
       <c r="D14" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="H14" s="4" t="s">
+      <c r="H14" s="3" t="s">
         <v>205</v>
       </c>
     </row>
@@ -1681,7 +1791,7 @@
       <c r="D15" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="H15" s="4" t="s">
+      <c r="H15" s="3" t="s">
         <v>133</v>
       </c>
     </row>
@@ -1698,7 +1808,7 @@
       <c r="D16" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="H16" s="4" t="s">
+      <c r="H16" s="3" t="s">
         <v>135</v>
       </c>
     </row>
@@ -1715,7 +1825,7 @@
       <c r="D17" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="H17" s="4" t="s">
+      <c r="H17" s="3" t="s">
         <v>156</v>
       </c>
     </row>
@@ -1732,7 +1842,7 @@
       <c r="D18" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="H18" s="4" t="s">
+      <c r="H18" s="3" t="s">
         <v>155</v>
       </c>
     </row>
@@ -1749,7 +1859,7 @@
       <c r="D19" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="H19" s="4" t="s">
+      <c r="H19" s="3" t="s">
         <v>154</v>
       </c>
     </row>
@@ -1766,7 +1876,7 @@
       <c r="D20" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="H20" s="4" t="s">
+      <c r="H20" s="3" t="s">
         <v>138</v>
       </c>
     </row>
@@ -1783,7 +1893,7 @@
       <c r="D21" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="H21" s="4" t="s">
+      <c r="H21" s="3" t="s">
         <v>141</v>
       </c>
     </row>
@@ -1800,7 +1910,7 @@
       <c r="D22" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="H22" s="4" t="s">
+      <c r="H22" s="3" t="s">
         <v>143</v>
       </c>
     </row>
@@ -1817,7 +1927,7 @@
       <c r="D23" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="H23" s="4" t="s">
+      <c r="H23" s="3" t="s">
         <v>145</v>
       </c>
     </row>
@@ -1834,7 +1944,7 @@
       <c r="D24" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="H24" s="4" t="s">
+      <c r="H24" s="3" t="s">
         <v>147</v>
       </c>
     </row>
@@ -1851,7 +1961,7 @@
       <c r="D25" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="H25" s="4" t="s">
+      <c r="H25" s="3" t="s">
         <v>149</v>
       </c>
     </row>
@@ -1868,7 +1978,7 @@
       <c r="D26" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="H26" s="4" t="s">
+      <c r="H26" s="3" t="s">
         <v>151</v>
       </c>
     </row>
@@ -1885,7 +1995,7 @@
       <c r="D27" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="H27" s="4" t="s">
+      <c r="H27" s="3" t="s">
         <v>153</v>
       </c>
     </row>
@@ -1902,7 +2012,7 @@
       <c r="D28" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="H28" s="4" t="s">
+      <c r="H28" s="3" t="s">
         <v>158</v>
       </c>
     </row>
@@ -1919,7 +2029,7 @@
       <c r="D29" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="H29" s="4" t="s">
+      <c r="H29" s="3" t="s">
         <v>163</v>
       </c>
     </row>
@@ -1936,7 +2046,7 @@
       <c r="D30" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="H30" s="4" t="s">
+      <c r="H30" s="3" t="s">
         <v>215</v>
       </c>
     </row>
@@ -1953,7 +2063,7 @@
       <c r="D31" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="H31" s="4" t="s">
+      <c r="H31" s="3" t="s">
         <v>167</v>
       </c>
     </row>
@@ -1970,7 +2080,7 @@
       <c r="D32" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="H32" s="4" t="s">
+      <c r="H32" s="3" t="s">
         <v>164</v>
       </c>
     </row>
@@ -1987,7 +2097,7 @@
       <c r="D33" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="H33" s="4" t="s">
+      <c r="H33" s="3" t="s">
         <v>168</v>
       </c>
     </row>
@@ -2004,7 +2114,7 @@
       <c r="D34" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="H34" s="4" t="s">
+      <c r="H34" s="3" t="s">
         <v>170</v>
       </c>
     </row>
@@ -2021,7 +2131,7 @@
       <c r="D35" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="H35" s="4" t="s">
+      <c r="H35" s="3" t="s">
         <v>235</v>
       </c>
     </row>
@@ -2038,7 +2148,7 @@
       <c r="D36" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="H36" s="4" t="s">
+      <c r="H36" s="3" t="s">
         <v>234</v>
       </c>
     </row>
@@ -2055,7 +2165,7 @@
       <c r="D37" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="H37" s="4" t="s">
+      <c r="H37" s="3" t="s">
         <v>233</v>
       </c>
     </row>
@@ -2072,7 +2182,7 @@
       <c r="D38" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="H38" s="4" t="s">
+      <c r="H38" s="3" t="s">
         <v>172</v>
       </c>
     </row>
@@ -2089,7 +2199,7 @@
       <c r="D39" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="H39" s="4" t="s">
+      <c r="H39" s="3" t="s">
         <v>174</v>
       </c>
     </row>
@@ -2106,7 +2216,7 @@
       <c r="D40" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="H40" s="4" t="s">
+      <c r="H40" s="3" t="s">
         <v>176</v>
       </c>
     </row>
@@ -2123,7 +2233,7 @@
       <c r="D41" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="H41" s="4" t="s">
+      <c r="H41" s="3" t="s">
         <v>177</v>
       </c>
     </row>
@@ -2140,7 +2250,7 @@
       <c r="D42" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="H42" s="4" t="s">
+      <c r="H42" s="3" t="s">
         <v>179</v>
       </c>
     </row>
@@ -2157,7 +2267,7 @@
       <c r="D43" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="H43" s="4" t="s">
+      <c r="H43" s="3" t="s">
         <v>181</v>
       </c>
     </row>
@@ -2174,7 +2284,7 @@
       <c r="D44" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="H44" s="4" t="s">
+      <c r="H44" s="3" t="s">
         <v>183</v>
       </c>
     </row>
@@ -2191,7 +2301,7 @@
       <c r="D45" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="H45" s="4" t="s">
+      <c r="H45" s="3" t="s">
         <v>185</v>
       </c>
     </row>
@@ -2208,7 +2318,7 @@
       <c r="D46" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="H46" s="4" t="s">
+      <c r="H46" s="3" t="s">
         <v>187</v>
       </c>
     </row>
@@ -2225,7 +2335,7 @@
       <c r="D47" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="H47" s="4" t="s">
+      <c r="H47" s="3" t="s">
         <v>189</v>
       </c>
     </row>
@@ -2242,7 +2352,7 @@
       <c r="D48" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="H48" s="4" t="s">
+      <c r="H48" s="3" t="s">
         <v>191</v>
       </c>
     </row>
@@ -2259,7 +2369,7 @@
       <c r="D49" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="H49" s="4" t="s">
+      <c r="H49" s="3" t="s">
         <v>193</v>
       </c>
     </row>
@@ -2276,7 +2386,7 @@
       <c r="D50" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="H50" s="4" t="s">
+      <c r="H50" s="3" t="s">
         <v>218</v>
       </c>
     </row>
@@ -2293,7 +2403,7 @@
       <c r="D51" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="H51" s="4" t="s">
+      <c r="H51" s="3" t="s">
         <v>195</v>
       </c>
     </row>
@@ -2310,7 +2420,7 @@
       <c r="D52" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="H52" s="4" t="s">
+      <c r="H52" s="3" t="s">
         <v>238</v>
       </c>
     </row>
@@ -2327,7 +2437,7 @@
       <c r="D53" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="H53" s="4" t="s">
+      <c r="H53" s="3" t="s">
         <v>200</v>
       </c>
     </row>
@@ -2344,7 +2454,7 @@
       <c r="D54" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="H54" s="4" t="s">
+      <c r="H54" s="3" t="s">
         <v>199</v>
       </c>
     </row>
@@ -2361,7 +2471,7 @@
       <c r="D55" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="H55" s="4" t="s">
+      <c r="H55" s="3" t="s">
         <v>202</v>
       </c>
     </row>
@@ -2378,7 +2488,7 @@
       <c r="D56" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="H56" s="4" t="s">
+      <c r="H56" s="3" t="s">
         <v>164</v>
       </c>
     </row>
@@ -2395,7 +2505,7 @@
       <c r="D57" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="H57" s="4" t="s">
+      <c r="H57" s="3" t="s">
         <v>203</v>
       </c>
     </row>
@@ -2412,7 +2522,7 @@
       <c r="D58" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="H58" s="4" t="s">
+      <c r="H58" s="3" t="s">
         <v>225</v>
       </c>
     </row>
@@ -2429,6 +2539,9 @@
       <c r="D59" s="2" t="s">
         <v>254</v>
       </c>
+      <c r="H59" s="3" t="s">
+        <v>324</v>
+      </c>
     </row>
     <row r="60" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
@@ -2443,6 +2556,9 @@
       <c r="D60" s="2" t="s">
         <v>253</v>
       </c>
+      <c r="H60" s="3" t="s">
+        <v>325</v>
+      </c>
     </row>
     <row r="61" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
@@ -2457,6 +2573,9 @@
       <c r="D61" s="2" t="s">
         <v>246</v>
       </c>
+      <c r="H61" s="3" t="s">
+        <v>326</v>
+      </c>
     </row>
     <row r="62" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
@@ -2471,6 +2590,9 @@
       <c r="D62" s="2" t="s">
         <v>247</v>
       </c>
+      <c r="H62" s="3" t="s">
+        <v>327</v>
+      </c>
     </row>
     <row r="63" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
@@ -2485,6 +2607,9 @@
       <c r="D63" s="2" t="s">
         <v>248</v>
       </c>
+      <c r="H63" s="3" t="s">
+        <v>328</v>
+      </c>
     </row>
     <row r="64" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
@@ -2499,8 +2624,11 @@
       <c r="D64" s="2" t="s">
         <v>264</v>
       </c>
-    </row>
-    <row r="65" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="H64" s="3" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>256</v>
       </c>
@@ -2513,8 +2641,11 @@
       <c r="D65" s="2" t="s">
         <v>265</v>
       </c>
-    </row>
-    <row r="66" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="H65" s="3" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>257</v>
       </c>
@@ -2527,8 +2658,11 @@
       <c r="D66" s="2" t="s">
         <v>264</v>
       </c>
-    </row>
-    <row r="67" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="H66" s="3" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>258</v>
       </c>
@@ -2541,8 +2675,11 @@
       <c r="D67" s="2" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="68" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="H67" s="3" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>259</v>
       </c>
@@ -2555,8 +2692,11 @@
       <c r="D68" s="2" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="69" spans="1:4" ht="105" x14ac:dyDescent="0.25">
+      <c r="H68" s="3" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" ht="105" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>269</v>
       </c>
@@ -2569,8 +2709,11 @@
       <c r="D69" s="2" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="70" spans="1:4" ht="135" x14ac:dyDescent="0.25">
+      <c r="H69" s="3" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" ht="135" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>273</v>
       </c>
@@ -2583,13 +2726,16 @@
       <c r="D70" s="2" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="71" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="H70" s="3" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>274</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>277</v>
@@ -2597,13 +2743,16 @@
       <c r="D71" s="2" t="s">
         <v>288</v>
       </c>
-    </row>
-    <row r="72" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="H71" s="3" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>276</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>278</v>
@@ -2611,13 +2760,16 @@
       <c r="D72" s="2" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="73" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="H72" s="3" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>275</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>279</v>
@@ -2625,13 +2777,16 @@
       <c r="D73" s="2" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="74" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="H73" s="3" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>280</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>281</v>
@@ -2639,13 +2794,16 @@
       <c r="D74" s="2" t="s">
         <v>291</v>
       </c>
-    </row>
-    <row r="75" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="H74" s="3" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>284</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>282</v>
@@ -2653,13 +2811,16 @@
       <c r="D75" s="2" t="s">
         <v>292</v>
       </c>
-    </row>
-    <row r="76" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="H75" s="3" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>285</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>283</v>
@@ -2667,152 +2828,230 @@
       <c r="D76" s="2" t="s">
         <v>293</v>
       </c>
-    </row>
-    <row r="77" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="H76" s="3" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>287</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>286</v>
       </c>
       <c r="D77" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="H77" s="3" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A78" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="B78" s="2" t="s">
         <v>294</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A78" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="B78" s="2" t="s">
-        <v>295</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>282</v>
       </c>
       <c r="D78" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="H78" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="I78" s="3"/>
+    </row>
+    <row r="79" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A79" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="D79" s="2" t="s">
         <v>304</v>
       </c>
-    </row>
-    <row r="79" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A79" s="1" t="s">
+      <c r="H79" s="3" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A80" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="H80" s="3" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A81" s="1" t="s">
         <v>299</v>
       </c>
-      <c r="B79" s="2" t="s">
-        <v>295</v>
-      </c>
-      <c r="C79" s="2" t="s">
-        <v>301</v>
-      </c>
-      <c r="D79" s="2" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A80" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="B80" s="2" t="s">
-        <v>295</v>
-      </c>
-      <c r="C80" s="2" t="s">
+      <c r="B81" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="C81" s="2" t="s">
         <v>302</v>
       </c>
-      <c r="D80" s="2" t="s">
+      <c r="D81" s="2" t="s">
         <v>306</v>
       </c>
-    </row>
-    <row r="81" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A81" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="B81" s="2" t="s">
-        <v>295</v>
-      </c>
-      <c r="C81" s="2" t="s">
-        <v>303</v>
-      </c>
-      <c r="D81" s="2" t="s">
+      <c r="H81" s="3" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A82" s="1" t="s">
         <v>307</v>
       </c>
-    </row>
-    <row r="82" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A82" s="1" t="s">
+      <c r="B82" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="H82" s="3" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" ht="135" x14ac:dyDescent="0.25">
+      <c r="A83" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="B82" s="2" t="s">
-        <v>310</v>
-      </c>
-      <c r="C82" s="2" t="s">
+      <c r="B83" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="H83" s="3" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="A84" s="1" t="s">
         <v>312</v>
       </c>
-    </row>
-    <row r="83" spans="1:4" ht="135" x14ac:dyDescent="0.25">
-      <c r="A83" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="B83" s="2" t="s">
-        <v>310</v>
-      </c>
-      <c r="C83" s="2" t="s">
+      <c r="B84" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="C84" s="2" t="s">
         <v>311</v>
       </c>
-    </row>
-    <row r="84" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A84" s="1" t="s">
+      <c r="D84" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="H84" s="3" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="A85" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="B85" s="2" t="s">
         <v>314</v>
       </c>
-      <c r="B84" s="2" t="s">
+      <c r="C85" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="H85" s="3" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A86" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="C84" s="2" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A85" s="1" t="s">
-        <v>315</v>
-      </c>
-      <c r="B85" s="2" t="s">
-        <v>316</v>
-      </c>
-      <c r="C85" s="2" t="s">
+      <c r="B86" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="H86" s="3" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A87" s="1" t="s">
         <v>317</v>
       </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A86" s="1" t="s">
-        <v>318</v>
-      </c>
-      <c r="B86" s="2" t="s">
-        <v>320</v>
-      </c>
-      <c r="C86" s="2" t="s">
+      <c r="B87" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="H87" s="3" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A88" s="1" t="s">
         <v>322</v>
       </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A87" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="B87" s="2" t="s">
-        <v>321</v>
-      </c>
-      <c r="C87" s="2" t="s">
+      <c r="B88" s="2" t="s">
         <v>323</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A88" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="B88" s="2" t="s">
-        <v>325</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>74</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="H88" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A89" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="H89" s="3" t="s">
+        <v>362</v>
       </c>
     </row>
   </sheetData>

--- a/config/languageFile.xlsx
+++ b/config/languageFile.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fenn\Nextcloud\Artikel Cognitive Affective Maps Tools\CAM tools\CAMtools_CAMEL\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5498B9D-4213-443A-8CD7-1D5663C26A09}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E115F24-009F-43AD-9DDD-31118F51FF91}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -83,7 +83,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="363">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="537" uniqueCount="446">
   <si>
     <t>english</t>
   </si>
@@ -1172,6 +1172,255 @@
   </si>
   <si>
     <t>haga clic para continuar</t>
+  </si>
+  <si>
+    <t>Veuillez ne pas changer ou réduire la fenêtre du navigateur pendant que l'étude est en cours, mais uniquement lorsqu'il y a une pause pendant l'étude.</t>
+  </si>
+  <si>
+    <t>Fermer</t>
+  </si>
+  <si>
+    <t>Veuillez cliquer sur la barre de navigation si vous avez besoin d'aide pour dessiner une Cognitive Affective Map. Sinon, vous pouvez maintenant fermer cette fenêtre.</t>
+  </si>
+  <si>
+    <t>Aperçu rapide</t>
+  </si>
+  <si>
+    <t>Concept positif</t>
+  </si>
+  <si>
+    <t>Concept négatif</t>
+  </si>
+  <si>
+    <t>Concept ambivalent</t>
+  </si>
+  <si>
+    <t>Concept neutre</t>
+  </si>
+  <si>
+    <t>Dessinez des liens entre les concepts qui ont un rapport entre eux.</t>
+  </si>
+  <si>
+    <t>Les concepts se renforcent mutuellement</t>
+  </si>
+  <si>
+    <t>Les concepts s'inhibent mutuellement</t>
+  </si>
+  <si>
+    <t>Déplacez votre Cognitive Affective Map</t>
+  </si>
+  <si>
+    <t>en déplaçant le curseur vers le bord de la fenêtre de dessin (zone grise)</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;Créer:&lt;/b&gt; Un seul clic de souris sur la zone de dessin blanche</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;Mise à jour:&lt;/b&gt; double-clic sur un concept déjà existant</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;Effacer:&lt;/b&gt; double-clic sur un concept déjà existant, puis clic sur l'icône "Corbeille" en haut à droite de la fenêtre qui s'ouvre.</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;Ajouter du texte:&lt;/b&gt; Modifier le contenu du concept (n'utiliser que des mots isolés)</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;Ajouter un commentaire:&lt;/b&gt; Ecrivez un commentaire dans le champ de saisie "Commentaire".</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;Créer:&lt;/b&gt; Cliquez sur deux concepts pour dessiner un lien</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;Mettre à jour:&lt;/b&gt; double-clic sur une connexion déjà existante</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;Effacer:&lt;/b&gt; double-clic sur une connexion existante, puis clic sur l'icône "Corbeille" dans le coin supérieur droit de la fenêtre qui s'ouvre.</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;Changer la force:&lt;/b&gt; Utilisez le curseur pour changer la force de la connexion</t>
+  </si>
+  <si>
+    <t>Direction de l'influence</t>
+  </si>
+  <si>
+    <t>Les concepts s'influencent mutuellement</t>
+  </si>
+  <si>
+    <t>Les concepts ne s'influencent que dans un sens, de gauche à droite</t>
+  </si>
+  <si>
+    <t>Enregistrer la carte cognitive-affective et envoyer les données au serveur</t>
+  </si>
+  <si>
+    <t>Télécharger la Cognitive Affective Map en tant qu'image</t>
+  </si>
+  <si>
+    <t>Effacer la Cognitive Affective Map et aucune donnée n'est envoyée au serveur</t>
+  </si>
+  <si>
+    <t>Légende</t>
+  </si>
+  <si>
+    <t>Lien</t>
+  </si>
+  <si>
+    <t>Boutons</t>
+  </si>
+  <si>
+    <t>Ouvrir l'aide rapide</t>
+  </si>
+  <si>
+    <t>Enregistrer la CAM sur le serveur</t>
+  </si>
+  <si>
+    <t>Enregistrer la CAM en tant qu'image</t>
+  </si>
+  <si>
+    <t>Supprimer la CAM</t>
+  </si>
+  <si>
+    <t>Définir le concept comme</t>
+  </si>
+  <si>
+    <t>Commentaire</t>
+  </si>
+  <si>
+    <t>Supprimer le concept</t>
+  </si>
+  <si>
+    <t>Type et force du lien</t>
+  </si>
+  <si>
+    <t>Renforcement</t>
+  </si>
+  <si>
+    <t>Direction de la connexion</t>
+  </si>
+  <si>
+    <t>Les concepts ne s'influencent que dans une seule direction. Cliquez plusieurs fois sur le bouton pour modifier la direction de l'influence.</t>
+  </si>
+  <si>
+    <t>Supprimer le lien</t>
+  </si>
+  <si>
+    <t>Veuillez retourner à votre Cognitive Affective Map et ajouter du texte aux concepts vides.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Le(s) concept(s) est/sont vide(s).</t>
+  </si>
+  <si>
+    <t>Veuillez retourner à votre Cognitive Affective Map et y ajouter d'autres concepts.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Veuillez dessiner au moins </t>
+  </si>
+  <si>
+    <t>Veuillez retourner à votre Cognitive-Affective Map et ajouter d'autres connexions.</t>
+  </si>
+  <si>
+    <t>Veuillez connecter tous vos concepts de votre Cognitive Affective Map.</t>
+  </si>
+  <si>
+    <t>Veuillez connecter tous vos</t>
+  </si>
+  <si>
+    <t>différents groupes de concepts de votre Cognitive Affective Map.</t>
+  </si>
+  <si>
+    <t>Vos données de la CAM ont été envoyées au serveur. Nous vous remercions de votre participation ! Vous allez être redirigé vers la fin ou la dernière partie de l'étude.</t>
+  </si>
+  <si>
+    <t>Vous avez envoyé avec succès vos données CAM à un serveur. Pour sauvegarder vos données de manière permanente, veuillez utiliser notre panneau d'administration ou héberger le logiciel C.A.M.E.L. sur votre propre serveur.</t>
+  </si>
+  <si>
+    <t>Veuillez plutôt dessiner plusieurs concepts cohérents.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N'utilisez pas plus de </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> mots pour un seul concept !</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> des caractères pour un seul concept !</t>
+  </si>
+  <si>
+    <t>Veuillez choisir d'autres concepts à la place.</t>
+  </si>
+  <si>
+    <t>Vous ne pouvez pas modifier le contenu des concepts prédéfinis.</t>
+  </si>
+  <si>
+    <t>Pour modifier à nouveau le concept ambivalent, veuillez désactiver la case à cocher.</t>
+  </si>
+  <si>
+    <t>Veuillez sélectionner d'autres concepts à la place.</t>
+  </si>
+  <si>
+    <t>Vous ne pouvez pas supprimer les concepts prédéfinis.</t>
+  </si>
+  <si>
+    <t>Veuillez choisir d'autres connexions à la place.</t>
+  </si>
+  <si>
+    <t>Vous ne pouvez pas supprimer des connexions prédéfinies.</t>
+  </si>
+  <si>
+    <t>Confirmer la sauvegarde</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Veuillez confirmer en appuyant sur "Oui" que vous souhaitez sauvegarder votre carte cognitivo-affective. Vous serez redirigé vers la partie suivante de l'étude et vous ne pourrez plus modifier votre Cognitive Affective Map. </t>
+  </si>
+  <si>
+    <t>Voulez-vous vraiment supprimer votre CAM ? Aucune donnée ne sera sauvegardée sur le serveur.</t>
+  </si>
+  <si>
+    <t>Votre CAM a été supprimée. Aucune donnée ne sera sauvegardée sur le serveur. La CAM par défaut a été restaurée.</t>
+  </si>
+  <si>
+    <t>Oui</t>
+  </si>
+  <si>
+    <t>Non</t>
+  </si>
+  <si>
+    <t>Chaque concept se voit attribuer une valeur émotionnelle fondamentale:</t>
+  </si>
+  <si>
+    <t>cliquer pour continuer</t>
+  </si>
+  <si>
+    <t>Créer, mettre à jour, supprimer des connexions:</t>
+  </si>
+  <si>
+    <t>Modifier le contenu de la connexion:</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;Modifier le type et la force:&lt;/b&gt; Utilisez le curseur pour modifier le type de connexion (renforcement ou inhibition) et la force de la connexion.</t>
+  </si>
+  <si>
+    <t>Un clic sur les boutons de la barre supérieure provoque les résultats suivants:</t>
+  </si>
+  <si>
+    <t>Contenu:</t>
+  </si>
+  <si>
+    <t>Type et force du concept:</t>
+  </si>
+  <si>
+    <t>Force du lien:</t>
+  </si>
+  <si>
+    <t>Créer, actualiser, supprimer des concepts:</t>
+  </si>
+  <si>
+    <t>Modifier le contenu des concepts:</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;Modifier le type et la force:&lt;/b&gt; Utilisez le curseur pour modifier l'émotion associée au concept et sa force.</t>
+  </si>
+  <si>
+    <t>chinese</t>
   </si>
 </sst>
 </file>
@@ -1517,8 +1766,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A89" sqref="A89"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1526,12 +1775,11 @@
     <col min="1" max="1" width="29.140625" style="1" customWidth="1"/>
     <col min="2" max="2" width="16.5703125" style="2" customWidth="1"/>
     <col min="3" max="4" width="25.7109375" style="2" customWidth="1"/>
-    <col min="5" max="7" width="25.7109375" customWidth="1"/>
-    <col min="8" max="8" width="25.7109375" style="3" customWidth="1"/>
-    <col min="9" max="9" width="25.7109375" customWidth="1"/>
+    <col min="5" max="6" width="25.7109375" style="3" customWidth="1"/>
+    <col min="7" max="15" width="25.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>55</v>
       </c>
@@ -1544,20 +1792,23 @@
       <c r="D1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>445</v>
+      </c>
+      <c r="H1" t="s">
         <v>57</v>
       </c>
-      <c r="F1" t="s">
+      <c r="I1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="105" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:9" ht="105" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>109</v>
       </c>
@@ -1570,11 +1821,14 @@
       <c r="D2" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="E2" s="3" t="s">
+        <v>363</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>73</v>
       </c>
@@ -1587,11 +1841,14 @@
       <c r="D3" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="E3" s="3" t="s">
+        <v>364</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="120" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="120" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -1604,11 +1861,14 @@
       <c r="D4" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="E4" s="3" t="s">
+        <v>365</v>
+      </c>
+      <c r="F4" s="3" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>102</v>
       </c>
@@ -1621,11 +1881,14 @@
       <c r="D5" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="E5" s="3" t="s">
+        <v>366</v>
+      </c>
+      <c r="F5" s="3" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
@@ -1638,11 +1901,14 @@
       <c r="D6" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="H6" s="3" t="s">
+      <c r="E6" s="3" t="s">
+        <v>433</v>
+      </c>
+      <c r="F6" s="3" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>9</v>
       </c>
@@ -1655,11 +1921,14 @@
       <c r="D7" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="H7" s="3" t="s">
+      <c r="E7" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="F7" s="3" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>10</v>
       </c>
@@ -1672,11 +1941,14 @@
       <c r="D8" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="H8" s="3" t="s">
+      <c r="E8" s="3" t="s">
+        <v>368</v>
+      </c>
+      <c r="F8" s="3" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>11</v>
       </c>
@@ -1689,11 +1961,14 @@
       <c r="D9" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="H9" s="3" t="s">
+      <c r="E9" s="3" t="s">
+        <v>369</v>
+      </c>
+      <c r="F9" s="3" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>12</v>
       </c>
@@ -1706,11 +1981,14 @@
       <c r="D10" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="H10" s="3" t="s">
+      <c r="E10" s="3" t="s">
+        <v>370</v>
+      </c>
+      <c r="F10" s="3" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>13</v>
       </c>
@@ -1723,11 +2001,14 @@
       <c r="D11" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="H11" s="3" t="s">
+      <c r="E11" s="3" t="s">
+        <v>371</v>
+      </c>
+      <c r="F11" s="3" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>14</v>
       </c>
@@ -1740,11 +2021,14 @@
       <c r="D12" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="H12" s="3" t="s">
+      <c r="E12" s="3" t="s">
+        <v>372</v>
+      </c>
+      <c r="F12" s="3" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>15</v>
       </c>
@@ -1757,11 +2041,14 @@
       <c r="D13" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="H13" s="3" t="s">
+      <c r="E13" s="3" t="s">
+        <v>373</v>
+      </c>
+      <c r="F13" s="3" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>104</v>
       </c>
@@ -1774,11 +2061,14 @@
       <c r="D14" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="H14" s="3" t="s">
+      <c r="E14" s="3" t="s">
+        <v>374</v>
+      </c>
+      <c r="F14" s="3" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>105</v>
       </c>
@@ -1791,11 +2081,14 @@
       <c r="D15" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="H15" s="3" t="s">
+      <c r="E15" s="3" t="s">
+        <v>375</v>
+      </c>
+      <c r="F15" s="3" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>24</v>
       </c>
@@ -1808,11 +2101,14 @@
       <c r="D16" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="H16" s="3" t="s">
+      <c r="E16" s="3" t="s">
+        <v>442</v>
+      </c>
+      <c r="F16" s="3" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>26</v>
       </c>
@@ -1825,11 +2121,14 @@
       <c r="D17" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="H17" s="3" t="s">
+      <c r="E17" s="3" t="s">
+        <v>376</v>
+      </c>
+      <c r="F17" s="3" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>27</v>
       </c>
@@ -1842,11 +2141,14 @@
       <c r="D18" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="H18" s="3" t="s">
+      <c r="E18" s="3" t="s">
+        <v>377</v>
+      </c>
+      <c r="F18" s="3" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="105" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" ht="105" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>28</v>
       </c>
@@ -1859,11 +2161,14 @@
       <c r="D19" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="H19" s="3" t="s">
+      <c r="E19" s="3" t="s">
+        <v>378</v>
+      </c>
+      <c r="F19" s="3" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>31</v>
       </c>
@@ -1876,11 +2181,14 @@
       <c r="D20" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="H20" s="3" t="s">
+      <c r="E20" s="3" t="s">
+        <v>443</v>
+      </c>
+      <c r="F20" s="3" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>33</v>
       </c>
@@ -1893,11 +2201,14 @@
       <c r="D21" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="H21" s="3" t="s">
+      <c r="E21" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="F21" s="3" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="105" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" ht="105" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>34</v>
       </c>
@@ -1910,11 +2221,14 @@
       <c r="D22" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="H22" s="3" t="s">
+      <c r="E22" s="3" t="s">
+        <v>444</v>
+      </c>
+      <c r="F22" s="3" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>35</v>
       </c>
@@ -1927,11 +2241,14 @@
       <c r="D23" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="H23" s="3" t="s">
+      <c r="E23" s="3" t="s">
+        <v>380</v>
+      </c>
+      <c r="F23" s="3" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>36</v>
       </c>
@@ -1944,11 +2261,14 @@
       <c r="D24" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="H24" s="3" t="s">
+      <c r="E24" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="F24" s="3" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>37</v>
       </c>
@@ -1961,11 +2281,14 @@
       <c r="D25" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="H25" s="3" t="s">
+      <c r="E25" s="3" t="s">
+        <v>381</v>
+      </c>
+      <c r="F25" s="3" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>38</v>
       </c>
@@ -1978,11 +2301,14 @@
       <c r="D26" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="H26" s="3" t="s">
+      <c r="E26" s="3" t="s">
+        <v>382</v>
+      </c>
+      <c r="F26" s="3" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="105" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" ht="105" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>39</v>
       </c>
@@ -1995,11 +2321,14 @@
       <c r="D27" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="H27" s="3" t="s">
+      <c r="E27" s="3" t="s">
+        <v>383</v>
+      </c>
+      <c r="F27" s="3" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>45</v>
       </c>
@@ -2012,11 +2341,14 @@
       <c r="D28" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="H28" s="3" t="s">
+      <c r="E28" s="3" t="s">
+        <v>436</v>
+      </c>
+      <c r="F28" s="3" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="120" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" ht="120" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>46</v>
       </c>
@@ -2029,11 +2361,14 @@
       <c r="D29" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="H29" s="3" t="s">
+      <c r="E29" s="3" t="s">
+        <v>437</v>
+      </c>
+      <c r="F29" s="3" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>212</v>
       </c>
@@ -2046,11 +2381,14 @@
       <c r="D30" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="H30" s="3" t="s">
+      <c r="E30" s="3" t="s">
+        <v>384</v>
+      </c>
+      <c r="F30" s="3" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>47</v>
       </c>
@@ -2063,11 +2401,14 @@
       <c r="D31" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="H31" s="3" t="s">
+      <c r="E31" s="3" t="s">
+        <v>385</v>
+      </c>
+      <c r="F31" s="3" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>48</v>
       </c>
@@ -2080,11 +2421,14 @@
       <c r="D32" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="H32" s="3" t="s">
+      <c r="E32" s="3" t="s">
+        <v>386</v>
+      </c>
+      <c r="F32" s="3" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>49</v>
       </c>
@@ -2097,11 +2441,14 @@
       <c r="D33" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="H33" s="3" t="s">
+      <c r="E33" s="3" t="s">
+        <v>387</v>
+      </c>
+      <c r="F33" s="3" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>58</v>
       </c>
@@ -2114,11 +2461,14 @@
       <c r="D34" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="H34" s="3" t="s">
+      <c r="E34" s="3" t="s">
+        <v>438</v>
+      </c>
+      <c r="F34" s="3" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>60</v>
       </c>
@@ -2131,11 +2481,14 @@
       <c r="D35" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="H35" s="3" t="s">
+      <c r="E35" s="3" t="s">
+        <v>388</v>
+      </c>
+      <c r="F35" s="3" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>61</v>
       </c>
@@ -2148,11 +2501,14 @@
       <c r="D36" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="H36" s="3" t="s">
+      <c r="E36" s="3" t="s">
+        <v>389</v>
+      </c>
+      <c r="F36" s="3" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="37" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>62</v>
       </c>
@@ -2165,11 +2521,14 @@
       <c r="D37" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="H37" s="3" t="s">
+      <c r="E37" s="3" t="s">
+        <v>390</v>
+      </c>
+      <c r="F37" s="3" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>63</v>
       </c>
@@ -2182,11 +2541,14 @@
       <c r="D38" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="H38" s="3" t="s">
+      <c r="E38" s="3" t="s">
+        <v>391</v>
+      </c>
+      <c r="F38" s="3" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>68</v>
       </c>
@@ -2199,11 +2561,14 @@
       <c r="D39" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="H39" s="3" t="s">
+      <c r="E39" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="F39" s="3" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>69</v>
       </c>
@@ -2216,11 +2581,14 @@
       <c r="D40" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="H40" s="3" t="s">
+      <c r="E40" s="3" t="s">
+        <v>392</v>
+      </c>
+      <c r="F40" s="3" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>70</v>
       </c>
@@ -2233,11 +2601,14 @@
       <c r="D41" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="H41" s="3" t="s">
+      <c r="E41" s="3" t="s">
+        <v>393</v>
+      </c>
+      <c r="F41" s="3" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="42" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>77</v>
       </c>
@@ -2250,11 +2621,14 @@
       <c r="D42" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="H42" s="3" t="s">
+      <c r="E42" s="3" t="s">
+        <v>394</v>
+      </c>
+      <c r="F42" s="3" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>78</v>
       </c>
@@ -2267,11 +2641,14 @@
       <c r="D43" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="H43" s="3" t="s">
+      <c r="E43" s="3" t="s">
+        <v>395</v>
+      </c>
+      <c r="F43" s="3" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="44" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>79</v>
       </c>
@@ -2284,11 +2661,14 @@
       <c r="D44" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="H44" s="3" t="s">
+      <c r="E44" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="F44" s="3" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>80</v>
       </c>
@@ -2301,11 +2681,14 @@
       <c r="D45" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="H45" s="3" t="s">
+      <c r="E45" s="3" t="s">
+        <v>397</v>
+      </c>
+      <c r="F45" s="3" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>86</v>
       </c>
@@ -2318,11 +2701,14 @@
       <c r="D46" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="H46" s="3" t="s">
+      <c r="E46" s="3" t="s">
+        <v>439</v>
+      </c>
+      <c r="F46" s="3" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="47" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>91</v>
       </c>
@@ -2335,11 +2721,14 @@
       <c r="D47" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="H47" s="3" t="s">
+      <c r="E47" s="3" t="s">
+        <v>440</v>
+      </c>
+      <c r="F47" s="3" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>92</v>
       </c>
@@ -2352,11 +2741,14 @@
       <c r="D48" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="H48" s="3" t="s">
+      <c r="E48" s="3" t="s">
+        <v>398</v>
+      </c>
+      <c r="F48" s="3" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>93</v>
       </c>
@@ -2369,11 +2761,14 @@
       <c r="D49" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="H49" s="3" t="s">
+      <c r="E49" s="3" t="s">
+        <v>399</v>
+      </c>
+      <c r="F49" s="3" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>226</v>
       </c>
@@ -2386,11 +2781,14 @@
       <c r="D50" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="H50" s="3" t="s">
+      <c r="E50" s="3" t="s">
+        <v>400</v>
+      </c>
+      <c r="F50" s="3" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="51" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>95</v>
       </c>
@@ -2403,11 +2801,14 @@
       <c r="D51" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="H51" s="3" t="s">
+      <c r="E51" s="3" t="s">
+        <v>401</v>
+      </c>
+      <c r="F51" s="3" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="52" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>236</v>
       </c>
@@ -2420,11 +2821,14 @@
       <c r="D52" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="H52" s="3" t="s">
+      <c r="E52" s="3" t="s">
+        <v>441</v>
+      </c>
+      <c r="F52" s="3" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="53" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>98</v>
       </c>
@@ -2437,11 +2841,14 @@
       <c r="D53" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="H53" s="3" t="s">
+      <c r="E53" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="F53" s="3" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="54" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>99</v>
       </c>
@@ -2454,11 +2861,14 @@
       <c r="D54" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="H54" s="3" t="s">
+      <c r="E54" s="3" t="s">
+        <v>402</v>
+      </c>
+      <c r="F54" s="3" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="55" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>100</v>
       </c>
@@ -2471,11 +2881,14 @@
       <c r="D55" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="H55" s="3" t="s">
+      <c r="E55" s="3" t="s">
+        <v>403</v>
+      </c>
+      <c r="F55" s="3" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="56" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>219</v>
       </c>
@@ -2488,11 +2901,14 @@
       <c r="D56" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="H56" s="3" t="s">
+      <c r="E56" s="3" t="s">
+        <v>386</v>
+      </c>
+      <c r="F56" s="3" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="57" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>220</v>
       </c>
@@ -2505,11 +2921,14 @@
       <c r="D57" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="H57" s="3" t="s">
+      <c r="E57" s="3" t="s">
+        <v>404</v>
+      </c>
+      <c r="F57" s="3" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="58" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>222</v>
       </c>
@@ -2522,11 +2941,14 @@
       <c r="D58" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="H58" s="3" t="s">
+      <c r="E58" s="3" t="s">
+        <v>405</v>
+      </c>
+      <c r="F58" s="3" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="59" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>251</v>
       </c>
@@ -2539,11 +2961,14 @@
       <c r="D59" s="2" t="s">
         <v>254</v>
       </c>
-      <c r="H59" s="3" t="s">
+      <c r="E59" s="3" t="s">
+        <v>406</v>
+      </c>
+      <c r="F59" s="3" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="60" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>252</v>
       </c>
@@ -2556,11 +2981,14 @@
       <c r="D60" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="H60" s="3" t="s">
+      <c r="E60" s="3" t="s">
+        <v>407</v>
+      </c>
+      <c r="F60" s="3" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="61" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>241</v>
       </c>
@@ -2573,11 +3001,14 @@
       <c r="D61" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="H61" s="3" t="s">
+      <c r="E61" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="F61" s="3" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="62" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>242</v>
       </c>
@@ -2590,11 +3021,14 @@
       <c r="D62" s="2" t="s">
         <v>247</v>
       </c>
-      <c r="H62" s="3" t="s">
+      <c r="E62" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="F62" s="3" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="63" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>244</v>
       </c>
@@ -2607,11 +3041,14 @@
       <c r="D63" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="H63" s="3" t="s">
+      <c r="E63" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="F63" s="3" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="64" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>255</v>
       </c>
@@ -2624,11 +3061,14 @@
       <c r="D64" s="2" t="s">
         <v>264</v>
       </c>
-      <c r="H64" s="3" t="s">
+      <c r="E64" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="F64" s="3" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="65" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>256</v>
       </c>
@@ -2641,11 +3081,14 @@
       <c r="D65" s="2" t="s">
         <v>265</v>
       </c>
-      <c r="H65" s="3" t="s">
+      <c r="E65" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="F65" s="3" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="66" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>257</v>
       </c>
@@ -2658,11 +3101,14 @@
       <c r="D66" s="2" t="s">
         <v>264</v>
       </c>
-      <c r="H66" s="3" t="s">
+      <c r="E66" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="F66" s="3" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="67" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>258</v>
       </c>
@@ -2675,11 +3121,14 @@
       <c r="D67" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="H67" s="3" t="s">
+      <c r="E67" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="F67" s="3" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="68" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>259</v>
       </c>
@@ -2692,11 +3141,14 @@
       <c r="D68" s="2" t="s">
         <v>267</v>
       </c>
-      <c r="H68" s="3" t="s">
+      <c r="E68" s="3" t="s">
+        <v>413</v>
+      </c>
+      <c r="F68" s="3" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="69" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7" ht="105" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>269</v>
       </c>
@@ -2709,11 +3161,14 @@
       <c r="D69" s="2" t="s">
         <v>270</v>
       </c>
-      <c r="H69" s="3" t="s">
+      <c r="E69" s="3" t="s">
+        <v>414</v>
+      </c>
+      <c r="F69" s="3" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="70" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7" ht="150" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>273</v>
       </c>
@@ -2726,11 +3181,14 @@
       <c r="D70" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="H70" s="3" t="s">
+      <c r="E70" s="3" t="s">
+        <v>415</v>
+      </c>
+      <c r="F70" s="3" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="71" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>274</v>
       </c>
@@ -2743,11 +3201,14 @@
       <c r="D71" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="H71" s="3" t="s">
+      <c r="E71" s="3" t="s">
+        <v>416</v>
+      </c>
+      <c r="F71" s="3" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="72" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>276</v>
       </c>
@@ -2760,11 +3221,14 @@
       <c r="D72" s="2" t="s">
         <v>289</v>
       </c>
-      <c r="H72" s="3" t="s">
+      <c r="E72" s="3" t="s">
+        <v>417</v>
+      </c>
+      <c r="F72" s="3" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="73" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>275</v>
       </c>
@@ -2777,11 +3241,14 @@
       <c r="D73" s="2" t="s">
         <v>290</v>
       </c>
-      <c r="H73" s="3" t="s">
+      <c r="E73" s="3" t="s">
+        <v>418</v>
+      </c>
+      <c r="F73" s="3" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="74" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>280</v>
       </c>
@@ -2794,11 +3261,14 @@
       <c r="D74" s="2" t="s">
         <v>291</v>
       </c>
-      <c r="H74" s="3" t="s">
+      <c r="E74" s="3" t="s">
+        <v>419</v>
+      </c>
+      <c r="F74" s="3" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="75" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>284</v>
       </c>
@@ -2811,11 +3281,14 @@
       <c r="D75" s="2" t="s">
         <v>292</v>
       </c>
-      <c r="H75" s="3" t="s">
+      <c r="E75" s="3" t="s">
+        <v>420</v>
+      </c>
+      <c r="F75" s="3" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="76" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>285</v>
       </c>
@@ -2828,11 +3301,14 @@
       <c r="D76" s="2" t="s">
         <v>293</v>
       </c>
-      <c r="H76" s="3" t="s">
+      <c r="E76" s="3" t="s">
+        <v>421</v>
+      </c>
+      <c r="F76" s="3" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="77" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>287</v>
       </c>
@@ -2845,11 +3321,14 @@
       <c r="D77" s="2" t="s">
         <v>341</v>
       </c>
-      <c r="H77" s="3" t="s">
+      <c r="E77" s="3" t="s">
+        <v>422</v>
+      </c>
+      <c r="F77" s="3" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="78" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>296</v>
       </c>
@@ -2862,12 +3341,15 @@
       <c r="D78" s="2" t="s">
         <v>303</v>
       </c>
-      <c r="H78" s="3" t="s">
+      <c r="E78" s="3" t="s">
+        <v>423</v>
+      </c>
+      <c r="F78" s="3" t="s">
         <v>339</v>
       </c>
-      <c r="I78" s="3"/>
-    </row>
-    <row r="79" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="G78" s="3"/>
+    </row>
+    <row r="79" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
         <v>298</v>
       </c>
@@ -2880,11 +3362,14 @@
       <c r="D79" s="2" t="s">
         <v>304</v>
       </c>
-      <c r="H79" s="3" t="s">
+      <c r="E79" s="3" t="s">
+        <v>424</v>
+      </c>
+      <c r="F79" s="3" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="80" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>297</v>
       </c>
@@ -2897,11 +3382,14 @@
       <c r="D80" s="2" t="s">
         <v>305</v>
       </c>
-      <c r="H80" s="3" t="s">
+      <c r="E80" s="3" t="s">
+        <v>425</v>
+      </c>
+      <c r="F80" s="3" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="81" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>299</v>
       </c>
@@ -2914,11 +3402,14 @@
       <c r="D81" s="2" t="s">
         <v>306</v>
       </c>
-      <c r="H81" s="3" t="s">
+      <c r="E81" s="3" t="s">
+        <v>426</v>
+      </c>
+      <c r="F81" s="3" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="82" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>307</v>
       </c>
@@ -2931,11 +3422,14 @@
       <c r="D82" s="2" t="s">
         <v>346</v>
       </c>
-      <c r="H82" s="3" t="s">
+      <c r="E82" s="3" t="s">
+        <v>427</v>
+      </c>
+      <c r="F82" s="3" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="83" spans="1:8" ht="135" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" ht="150" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
         <v>308</v>
       </c>
@@ -2948,11 +3442,14 @@
       <c r="D83" s="2" t="s">
         <v>349</v>
       </c>
-      <c r="H83" s="3" t="s">
+      <c r="E83" s="3" t="s">
+        <v>428</v>
+      </c>
+      <c r="F83" s="3" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="84" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
         <v>312</v>
       </c>
@@ -2965,11 +3462,14 @@
       <c r="D84" s="2" t="s">
         <v>351</v>
       </c>
-      <c r="H84" s="3" t="s">
+      <c r="E84" s="3" t="s">
+        <v>429</v>
+      </c>
+      <c r="F84" s="3" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="85" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
         <v>313</v>
       </c>
@@ -2982,11 +3482,14 @@
       <c r="D85" s="2" t="s">
         <v>353</v>
       </c>
-      <c r="H85" s="3" t="s">
+      <c r="E85" s="3" t="s">
+        <v>430</v>
+      </c>
+      <c r="F85" s="3" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
         <v>316</v>
       </c>
@@ -2999,11 +3502,14 @@
       <c r="D86" s="2" t="s">
         <v>355</v>
       </c>
-      <c r="H86" s="3" t="s">
+      <c r="E86" s="3" t="s">
+        <v>431</v>
+      </c>
+      <c r="F86" s="3" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
         <v>317</v>
       </c>
@@ -3016,11 +3522,14 @@
       <c r="D87" s="2" t="s">
         <v>357</v>
       </c>
-      <c r="H87" s="3" t="s">
+      <c r="E87" s="3" t="s">
+        <v>432</v>
+      </c>
+      <c r="F87" s="3" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
         <v>322</v>
       </c>
@@ -3033,11 +3542,14 @@
       <c r="D88" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="H88" s="3" t="s">
+      <c r="E88" s="3" t="s">
+        <v>364</v>
+      </c>
+      <c r="F88" s="3" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="89" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
         <v>359</v>
       </c>
@@ -3050,7 +3562,10 @@
       <c r="D89" s="2" t="s">
         <v>361</v>
       </c>
-      <c r="H89" s="3" t="s">
+      <c r="E89" s="3" t="s">
+        <v>434</v>
+      </c>
+      <c r="F89" s="3" t="s">
         <v>362</v>
       </c>
     </row>

--- a/config/languageFile.xlsx
+++ b/config/languageFile.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fenn\Nextcloud\Artikel Cognitive Affective Maps Tools\CAM tools\CAMtools_CAMEL\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E115F24-009F-43AD-9DDD-31118F51FF91}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A170412D-D095-4CF4-B6D3-B684FA3DD5B1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1324,9 +1324,6 @@
     <t>Veuillez connecter tous vos</t>
   </si>
   <si>
-    <t>différents groupes de concepts de votre Cognitive Affective Map.</t>
-  </si>
-  <si>
     <t>Vos données de la CAM ont été envoyées au serveur. Nous vous remercions de votre participation ! Vous allez être redirigé vers la fin ou la dernière partie de l'étude.</t>
   </si>
   <si>
@@ -1421,6 +1418,9 @@
   </si>
   <si>
     <t>chinese</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> différents groupes de concepts de votre Cognitive Affective Map.</t>
   </si>
 </sst>
 </file>
@@ -1766,8 +1766,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I89"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView tabSelected="1" topLeftCell="A66" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G68" sqref="G68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1799,7 +1799,7 @@
         <v>7</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H1" t="s">
         <v>57</v>
@@ -1902,7 +1902,7 @@
         <v>117</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>118</v>
@@ -2102,7 +2102,7 @@
         <v>134</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="F16" s="3" t="s">
         <v>135</v>
@@ -2182,7 +2182,7 @@
         <v>139</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="F20" s="3" t="s">
         <v>138</v>
@@ -2222,7 +2222,7 @@
         <v>159</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="F22" s="3" t="s">
         <v>143</v>
@@ -2262,7 +2262,7 @@
         <v>146</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="F24" s="3" t="s">
         <v>147</v>
@@ -2342,7 +2342,7 @@
         <v>157</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="F28" s="3" t="s">
         <v>158</v>
@@ -2362,7 +2362,7 @@
         <v>160</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="F29" s="3" t="s">
         <v>163</v>
@@ -2462,7 +2462,7 @@
         <v>169</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="F34" s="3" t="s">
         <v>170</v>
@@ -2702,7 +2702,7 @@
         <v>186</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="F46" s="3" t="s">
         <v>187</v>
@@ -2722,7 +2722,7 @@
         <v>188</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="F47" s="3" t="s">
         <v>189</v>
@@ -2822,7 +2822,7 @@
         <v>237</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="F52" s="3" t="s">
         <v>238</v>
@@ -3142,7 +3142,7 @@
         <v>267</v>
       </c>
       <c r="E68" s="3" t="s">
-        <v>413</v>
+        <v>445</v>
       </c>
       <c r="F68" s="3" t="s">
         <v>332</v>
@@ -3162,7 +3162,7 @@
         <v>270</v>
       </c>
       <c r="E69" s="3" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="F69" s="3" t="s">
         <v>333</v>
@@ -3182,7 +3182,7 @@
         <v>272</v>
       </c>
       <c r="E70" s="3" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="F70" s="3" t="s">
         <v>334</v>
@@ -3202,7 +3202,7 @@
         <v>288</v>
       </c>
       <c r="E71" s="3" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="F71" s="3" t="s">
         <v>335</v>
@@ -3222,7 +3222,7 @@
         <v>289</v>
       </c>
       <c r="E72" s="3" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="F72" s="3" t="s">
         <v>336</v>
@@ -3242,7 +3242,7 @@
         <v>290</v>
       </c>
       <c r="E73" s="3" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="F73" s="3" t="s">
         <v>337</v>
@@ -3262,7 +3262,7 @@
         <v>291</v>
       </c>
       <c r="E74" s="3" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F74" s="3" t="s">
         <v>338</v>
@@ -3282,7 +3282,7 @@
         <v>292</v>
       </c>
       <c r="E75" s="3" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="F75" s="3" t="s">
         <v>339</v>
@@ -3302,7 +3302,7 @@
         <v>293</v>
       </c>
       <c r="E76" s="3" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="F76" s="3" t="s">
         <v>340</v>
@@ -3322,7 +3322,7 @@
         <v>341</v>
       </c>
       <c r="E77" s="3" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="F77" s="3" t="s">
         <v>342</v>
@@ -3342,7 +3342,7 @@
         <v>303</v>
       </c>
       <c r="E78" s="3" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="F78" s="3" t="s">
         <v>339</v>
@@ -3363,7 +3363,7 @@
         <v>304</v>
       </c>
       <c r="E79" s="3" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="F79" s="3" t="s">
         <v>343</v>
@@ -3383,7 +3383,7 @@
         <v>305</v>
       </c>
       <c r="E80" s="3" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="F80" s="3" t="s">
         <v>344</v>
@@ -3403,7 +3403,7 @@
         <v>306</v>
       </c>
       <c r="E81" s="3" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F81" s="3" t="s">
         <v>345</v>
@@ -3423,7 +3423,7 @@
         <v>346</v>
       </c>
       <c r="E82" s="3" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="F82" s="3" t="s">
         <v>347</v>
@@ -3443,7 +3443,7 @@
         <v>349</v>
       </c>
       <c r="E83" s="3" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="F83" s="3" t="s">
         <v>350</v>
@@ -3463,7 +3463,7 @@
         <v>351</v>
       </c>
       <c r="E84" s="3" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="F84" s="3" t="s">
         <v>352</v>
@@ -3483,7 +3483,7 @@
         <v>353</v>
       </c>
       <c r="E85" s="3" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="F85" s="3" t="s">
         <v>354</v>
@@ -3503,7 +3503,7 @@
         <v>355</v>
       </c>
       <c r="E86" s="3" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="F86" s="3" t="s">
         <v>356</v>
@@ -3523,7 +3523,7 @@
         <v>357</v>
       </c>
       <c r="E87" s="3" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="F87" s="3" t="s">
         <v>321</v>
@@ -3563,7 +3563,7 @@
         <v>361</v>
       </c>
       <c r="E89" s="3" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="F89" s="3" t="s">
         <v>362</v>

--- a/config/languageFile.xlsx
+++ b/config/languageFile.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20398"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20399"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fenn\Nextcloud\Artikel Cognitive Affective Maps Tools\CAM tools\CAMtools_CAMEL\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A170412D-D095-4CF4-B6D3-B684FA3DD5B1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0CBAC216-C8BE-4B60-AAE1-345A6FD181D7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7455" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,12 +22,72 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
+    <author>Tian Zhou</author>
+    <author>Tian</author>
     <author>tc={A646E28B-97F6-4AE2-BCBC-80D63BDE895B}</author>
     <author>tc={A646E28B-97F6-4AE3-BCBC-80D63BDE895B}</author>
     <author>tc={A5E30C12-9A09-4005-AC0C-695CE60E1B9A}</author>
   </authors>
   <commentList>
-    <comment ref="C29" authorId="0" shapeId="0" xr:uid="{4B83D189-86B8-4BB4-A68C-2F4A3D5DBC62}">
+    <comment ref="G2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Tian: 
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>does the break here refers to the resting time between blocks or a crush?</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G21" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Tian:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+what do we wish for as an equivalent concept in chinese? As the words in chinese can be varied in characters.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C29" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
@@ -44,7 +104,31 @@
         </r>
       </text>
     </comment>
-    <comment ref="C30" authorId="1" shapeId="0" xr:uid="{1E154B0F-DC76-4AB0-8F06-5AF257EE8CD0}">
+    <comment ref="G29" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Tian:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+I also followed the previous comment to name them as reinforce or inhibit.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C30" authorId="3" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
       <text>
         <r>
           <rPr>
@@ -61,7 +145,31 @@
         </r>
       </text>
     </comment>
-    <comment ref="C54" authorId="2" shapeId="0" xr:uid="{FC9A7347-D4AB-4E85-A198-88287572EDD4}">
+    <comment ref="G35" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Tian:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+with or without the hyphen? Previous columns do not have the hyphen.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C54" authorId="4" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
       <text>
         <r>
           <rPr>
@@ -78,12 +186,84 @@
         </r>
       </text>
     </comment>
+    <comment ref="G57" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000008000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Tian:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+Can influence be one-sided and to each other at the same time..?</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G63" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000009000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Tian:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+I assume we want to add a number between the cell above and this cell? In chinese, measure word will be used between a number and a noun. 个 is here the measure word. Two cases afterwards are similar.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G82" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000A000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Tian:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+do we refer to the state of saving or saved? I used the "saved" version as referring to the other translations.</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="537" uniqueCount="446">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="625" uniqueCount="531">
   <si>
     <t>english</t>
   </si>
@@ -1324,6 +1504,9 @@
     <t>Veuillez connecter tous vos</t>
   </si>
   <si>
+    <t>différents groupes de concepts de votre Cognitive Affective Map.</t>
+  </si>
+  <si>
     <t>Vos données de la CAM ont été envoyées au serveur. Nous vous remercions de votre participation ! Vous allez être redirigé vers la fin ou la dernière partie de l'étude.</t>
   </si>
   <si>
@@ -1420,20 +1603,298 @@
     <t>chinese</t>
   </si>
   <si>
-    <t xml:space="preserve"> différents groupes de concepts de votre Cognitive Affective Map.</t>
+    <t>当研究运行时，请不要改变或最小化浏览器窗口，除非研究进程中有一处暂停。</t>
+  </si>
+  <si>
+    <t>关闭</t>
+  </si>
+  <si>
+    <t>快速参考</t>
+  </si>
+  <si>
+    <t>如果您需要关于如何绘制一个 Cognitive Affective Map 的帮助，请点击导航键，否则，您可以直接关闭窗口。</t>
+  </si>
+  <si>
+    <t>每个概念都被赋予了一个基本情感价值：</t>
+  </si>
+  <si>
+    <t>积极概念</t>
+  </si>
+  <si>
+    <t>消极概念</t>
+  </si>
+  <si>
+    <t>矛盾概念</t>
+  </si>
+  <si>
+    <t>中性概念</t>
+  </si>
+  <si>
+    <t>在彼此关联的概念之间绘线：</t>
+  </si>
+  <si>
+    <t>概念彼此抑制</t>
+  </si>
+  <si>
+    <t>移动您的 Cognitive Affective Map</t>
+  </si>
+  <si>
+    <t>通过移动您的光标到绘图窗口的边缘（灰色区域）</t>
+  </si>
+  <si>
+    <t>建立，更新，删除概念：</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;建立：&lt;/b&gt; 单击空白绘图区域</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;更新：&lt;/b&gt; 双击已存在的概念</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;删除：&lt;/b&gt; 双击已存在的概念并且点击顶端右侧的“垃圾箱”图标</t>
+  </si>
+  <si>
+    <t>更改概念内容：</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;添加文本 ：&lt;/b&gt; 更改此概念的内容（仅使用一个词语）</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;添加注释：&lt;/b&gt; 在“注释”部分输入注释</t>
+  </si>
+  <si>
+    <t>建立，更新，删除联系：</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;建立：&lt;/b&gt; 点击两个概念来绘制一个联系</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;更新：&lt;/b&gt; 双击已存在的联系</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;删除：&lt;/b&gt; 双击已存在的联系并且点击顶端右侧的“垃圾箱”图标</t>
+  </si>
+  <si>
+    <t>更改联系内容：</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;更改类型和强度 ：&lt;/b&gt; 使用滑块来更改概念的情感属性和强度</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;更改类型和强度 ：&lt;/b&gt; 使用滑块来更改联系的类型（强化或抑制）和强度</t>
+  </si>
+  <si>
+    <t>概念彼此强化</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;更改强度 ：&lt;/b&gt; 使用滑块来更改联系的强度</t>
+  </si>
+  <si>
+    <t>影响方向：</t>
+  </si>
+  <si>
+    <t>概念相互影响</t>
+  </si>
+  <si>
+    <t>概念通过一个单向从左到右的方向相互影响</t>
+  </si>
+  <si>
+    <t>点击上栏中的按钮会产生以下结果：</t>
+  </si>
+  <si>
+    <t>删除 Cognitive-Affective Map 并且没有数据会被发送到服务器</t>
+  </si>
+  <si>
+    <t>保存 Cognitive-Affective Map 并且发送数据到服务器</t>
+  </si>
+  <si>
+    <t>图例</t>
+  </si>
+  <si>
+    <t>概念</t>
+  </si>
+  <si>
+    <t>联系</t>
+  </si>
+  <si>
+    <t>按钮</t>
+  </si>
+  <si>
+    <t>打开快速参考</t>
+  </si>
+  <si>
+    <t>保存CAM到服务器</t>
+  </si>
+  <si>
+    <t>保存CAM为图片</t>
+  </si>
+  <si>
+    <t>下载 Cognitive-Affective Map 为图片</t>
+  </si>
+  <si>
+    <t>删除CAM</t>
+  </si>
+  <si>
+    <t>内容：</t>
+  </si>
+  <si>
+    <t>概念类型和强度：</t>
+  </si>
+  <si>
+    <t>设置概念为</t>
+  </si>
+  <si>
+    <t>注释</t>
+  </si>
+  <si>
+    <t>删除概念</t>
+  </si>
+  <si>
+    <t>联系类型和强度</t>
+  </si>
+  <si>
+    <t>联系强度：</t>
+  </si>
+  <si>
+    <t>抑制</t>
+  </si>
+  <si>
+    <t>强化</t>
+  </si>
+  <si>
+    <t>联系方向</t>
+  </si>
+  <si>
+    <t>概念互相影响</t>
+  </si>
+  <si>
+    <t>概念之间的影响是单向的。多次点击按钮来更改方向。</t>
+  </si>
+  <si>
+    <t>删除联系</t>
+  </si>
+  <si>
+    <t>概念（一个或多个）是空白的。</t>
+  </si>
+  <si>
+    <t>请至少绘制</t>
+  </si>
+  <si>
+    <t>请返回到您的 Cognitive-Affective Map 并添加文本到空白概念。</t>
+  </si>
+  <si>
+    <t>请返回到您的 Cognitive-Affective Map 并添加更多的概念。</t>
+  </si>
+  <si>
+    <t>请返回到您的 Cognitive-Affective Map 并添加更多的联系。</t>
+  </si>
+  <si>
+    <t>请连接您的 Cognitive-Affective Map 里的所有概念。</t>
+  </si>
+  <si>
+    <t>请连接您的所有</t>
+  </si>
+  <si>
+    <t>您的 CAM 数据已被发送至服务器。感谢您的参与！您将被引导至研究的结束或最后部分。</t>
+  </si>
+  <si>
+    <t>您会成功发送 CAM 数据到一个服务器。为了永久保存您的数据，请使用我们的管理面板或将C.A.M.E.L.软件托管在您自己的服务器主机。</t>
+  </si>
+  <si>
+    <t>请不要使用多于</t>
+  </si>
+  <si>
+    <t>个词语于一个概念中！</t>
+  </si>
+  <si>
+    <t>个字符于一个概念中！</t>
+  </si>
+  <si>
+    <t>您不能更改预定义概念的内容。</t>
+  </si>
+  <si>
+    <t>为了再次改变矛盾概念，请取消勾选复选框。</t>
+  </si>
+  <si>
+    <t>您不能删除预定义概念。</t>
+  </si>
+  <si>
+    <t>作为替代，请绘制几个相关联的概念。</t>
+  </si>
+  <si>
+    <t>作为替代，请选择其他概念。</t>
+  </si>
+  <si>
+    <t>作为替代，请选择其他联系。</t>
+  </si>
+  <si>
+    <t>您不能删除预定义联系。</t>
+  </si>
+  <si>
+    <t>确认保存</t>
+  </si>
+  <si>
+    <t>请通过点击“是”确认您想要保存您的 Cognitive-Affective Map。您将会被引导到研究的下一部分同时您将&lt;b&gt;不&lt;/b&gt;能再更改您的 Cognitive-Affective Map。</t>
+  </si>
+  <si>
+    <t>是</t>
+  </si>
+  <si>
+    <t>否</t>
+  </si>
+  <si>
+    <t>点击以继续</t>
+  </si>
+  <si>
+    <t>个概念</t>
+  </si>
+  <si>
+    <t>个不同组于您的 Cognitive-Affective Map 中。</t>
+  </si>
+  <si>
+    <t>您是否确定想要删除您的CAM？将没有数据会被保存到服务器。</t>
+  </si>
+  <si>
+    <t>您的CAM已被删除。将没有数据会被保存到服务器。默认CAM已被恢复。</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1766,11 +2227,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A66" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G68" sqref="G68"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1:G1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="29.140625" style="1" customWidth="1"/>
     <col min="2" max="2" width="16.5703125" style="2" customWidth="1"/>
@@ -1779,7 +2240,7 @@
     <col min="7" max="15" width="25.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>55</v>
       </c>
@@ -1799,7 +2260,7 @@
         <v>7</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="H1" t="s">
         <v>57</v>
@@ -1808,7 +2269,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="105">
       <c r="A2" s="1" t="s">
         <v>109</v>
       </c>
@@ -1827,8 +2288,11 @@
       <c r="F2" s="3" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G2" s="2" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
         <v>73</v>
       </c>
@@ -1847,8 +2311,11 @@
       <c r="F3" s="3" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+      <c r="G3" s="2" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="120">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -1867,8 +2334,11 @@
       <c r="F4" s="3" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G4" s="2" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
         <v>102</v>
       </c>
@@ -1887,8 +2357,11 @@
       <c r="F5" s="3" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="G5" s="2" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="60">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
@@ -1902,13 +2375,16 @@
         <v>117</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G6" s="2" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
         <v>9</v>
       </c>
@@ -1927,8 +2403,11 @@
       <c r="F7" s="3" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G7" s="2" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
         <v>10</v>
       </c>
@@ -1947,8 +2426,11 @@
       <c r="F8" s="3" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G8" s="2" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="s">
         <v>11</v>
       </c>
@@ -1967,8 +2449,11 @@
       <c r="F9" s="3" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G9" s="2" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="s">
         <v>12</v>
       </c>
@@ -1987,8 +2472,11 @@
       <c r="F10" s="3" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="G10" s="2" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="60">
       <c r="A11" s="1" t="s">
         <v>13</v>
       </c>
@@ -2007,8 +2495,11 @@
       <c r="F11" s="3" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="G11" s="2" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="30">
       <c r="A12" s="1" t="s">
         <v>14</v>
       </c>
@@ -2027,8 +2518,11 @@
       <c r="F12" s="3" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="G12" s="2" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="30">
       <c r="A13" s="1" t="s">
         <v>15</v>
       </c>
@@ -2047,8 +2541,11 @@
       <c r="F13" s="3" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="G13" s="2" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="30">
       <c r="A14" s="1" t="s">
         <v>104</v>
       </c>
@@ -2067,8 +2564,11 @@
       <c r="F14" s="3" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="G14" s="2" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="60">
       <c r="A15" s="1" t="s">
         <v>105</v>
       </c>
@@ -2087,8 +2587,11 @@
       <c r="F15" s="3" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="G15" s="2" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="30">
       <c r="A16" s="1" t="s">
         <v>24</v>
       </c>
@@ -2102,13 +2605,16 @@
         <v>134</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="F16" s="3" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="G16" s="2" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="45">
       <c r="A17" s="1" t="s">
         <v>26</v>
       </c>
@@ -2127,8 +2633,11 @@
       <c r="F17" s="3" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="G17" s="2" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="45">
       <c r="A18" s="1" t="s">
         <v>27</v>
       </c>
@@ -2147,8 +2656,11 @@
       <c r="F18" s="3" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+      <c r="G18" s="2" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="105">
       <c r="A19" s="1" t="s">
         <v>28</v>
       </c>
@@ -2167,8 +2679,11 @@
       <c r="F19" s="3" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="G19" s="2" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="30">
       <c r="A20" s="1" t="s">
         <v>31</v>
       </c>
@@ -2182,13 +2697,16 @@
         <v>139</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="F20" s="3" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="G20" s="2" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="60">
       <c r="A21" s="1" t="s">
         <v>33</v>
       </c>
@@ -2207,8 +2725,11 @@
       <c r="F21" s="3" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+      <c r="G21" s="2" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="105">
       <c r="A22" s="1" t="s">
         <v>34</v>
       </c>
@@ -2222,13 +2743,16 @@
         <v>159</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="F22" s="3" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="G22" s="2" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="75">
       <c r="A23" s="1" t="s">
         <v>35</v>
       </c>
@@ -2247,8 +2771,11 @@
       <c r="F23" s="3" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="G23" s="2" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="30">
       <c r="A24" s="1" t="s">
         <v>36</v>
       </c>
@@ -2262,13 +2789,16 @@
         <v>146</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="F24" s="3" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="G24" s="2" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="60">
       <c r="A25" s="1" t="s">
         <v>37</v>
       </c>
@@ -2287,8 +2817,11 @@
       <c r="F25" s="3" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="G25" s="2" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="45">
       <c r="A26" s="1" t="s">
         <v>38</v>
       </c>
@@ -2307,8 +2840,11 @@
       <c r="F26" s="3" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+      <c r="G26" s="2" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="105">
       <c r="A27" s="1" t="s">
         <v>39</v>
       </c>
@@ -2327,8 +2863,11 @@
       <c r="F27" s="3" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="G27" s="2" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="30">
       <c r="A28" s="1" t="s">
         <v>45</v>
       </c>
@@ -2342,13 +2881,16 @@
         <v>157</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="F28" s="3" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" ht="120" x14ac:dyDescent="0.25">
+      <c r="G28" s="2" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="120">
       <c r="A29" s="1" t="s">
         <v>46</v>
       </c>
@@ -2362,13 +2904,16 @@
         <v>160</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="F29" s="3" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="G29" s="2" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="75">
       <c r="A30" s="1" t="s">
         <v>212</v>
       </c>
@@ -2387,8 +2932,11 @@
       <c r="F30" s="3" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G30" s="2" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
         <v>47</v>
       </c>
@@ -2407,8 +2955,11 @@
       <c r="F31" s="3" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="G31" s="2" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="30">
       <c r="A32" s="1" t="s">
         <v>48</v>
       </c>
@@ -2427,8 +2978,11 @@
       <c r="F32" s="3" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="G32" s="2" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="60">
       <c r="A33" s="1" t="s">
         <v>49</v>
       </c>
@@ -2447,8 +3001,11 @@
       <c r="F33" s="3" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="G33" s="2" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="45">
       <c r="A34" s="1" t="s">
         <v>58</v>
       </c>
@@ -2462,13 +3019,16 @@
         <v>169</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="F34" s="3" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="G34" s="2" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="60">
       <c r="A35" s="1" t="s">
         <v>60</v>
       </c>
@@ -2487,8 +3047,11 @@
       <c r="F35" s="3" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="G35" s="2" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="45">
       <c r="A36" s="1" t="s">
         <v>61</v>
       </c>
@@ -2507,8 +3070,11 @@
       <c r="F36" s="3" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="G36" s="2" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="60">
       <c r="A37" s="1" t="s">
         <v>62</v>
       </c>
@@ -2527,8 +3093,11 @@
       <c r="F37" s="3" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G37" s="2" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
         <v>63</v>
       </c>
@@ -2547,8 +3116,11 @@
       <c r="F38" s="3" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G38" s="2" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
         <v>68</v>
       </c>
@@ -2567,8 +3139,11 @@
       <c r="F39" s="3" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G39" s="2" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
         <v>69</v>
       </c>
@@ -2587,8 +3162,11 @@
       <c r="F40" s="3" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G40" s="2" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
         <v>70</v>
       </c>
@@ -2607,8 +3185,11 @@
       <c r="F41" s="3" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="42" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="G41" s="2" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="30">
       <c r="A42" s="1" t="s">
         <v>77</v>
       </c>
@@ -2627,8 +3208,11 @@
       <c r="F42" s="3" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="43" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="G42" s="2" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="30">
       <c r="A43" s="1" t="s">
         <v>78</v>
       </c>
@@ -2647,8 +3231,11 @@
       <c r="F43" s="3" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="44" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="G43" s="2" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" ht="30">
       <c r="A44" s="1" t="s">
         <v>79</v>
       </c>
@@ -2667,8 +3254,11 @@
       <c r="F44" s="3" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G44" s="2" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
         <v>80</v>
       </c>
@@ -2687,8 +3277,11 @@
       <c r="F45" s="3" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G45" s="2" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
         <v>86</v>
       </c>
@@ -2702,13 +3295,16 @@
         <v>186</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="F46" s="3" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="47" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="G46" s="2" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" ht="30">
       <c r="A47" s="1" t="s">
         <v>91</v>
       </c>
@@ -2722,13 +3318,16 @@
         <v>188</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="F47" s="3" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G47" s="2" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
         <v>92</v>
       </c>
@@ -2747,8 +3346,11 @@
       <c r="F48" s="3" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G48" s="2" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
         <v>93</v>
       </c>
@@ -2767,8 +3369,11 @@
       <c r="F49" s="3" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G49" s="2" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
         <v>226</v>
       </c>
@@ -2787,8 +3392,11 @@
       <c r="F50" s="3" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="51" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="G50" s="2" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" ht="30">
       <c r="A51" s="1" t="s">
         <v>95</v>
       </c>
@@ -2807,8 +3415,11 @@
       <c r="F51" s="3" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="52" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="G51" s="2" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" ht="30">
       <c r="A52" s="1" t="s">
         <v>236</v>
       </c>
@@ -2822,13 +3433,16 @@
         <v>237</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="F52" s="3" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="53" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="G52" s="2" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" ht="30">
       <c r="A53" s="1" t="s">
         <v>98</v>
       </c>
@@ -2847,8 +3461,11 @@
       <c r="F53" s="3" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="54" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="G53" s="2" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" ht="30">
       <c r="A54" s="1" t="s">
         <v>99</v>
       </c>
@@ -2867,8 +3484,11 @@
       <c r="F54" s="3" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="55" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="G54" s="2" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" ht="30">
       <c r="A55" s="1" t="s">
         <v>100</v>
       </c>
@@ -2887,8 +3507,11 @@
       <c r="F55" s="3" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="56" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="G55" s="2" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" ht="30">
       <c r="A56" s="1" t="s">
         <v>219</v>
       </c>
@@ -2907,8 +3530,11 @@
       <c r="F56" s="3" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="57" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="G56" s="2" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" ht="90">
       <c r="A57" s="1" t="s">
         <v>220</v>
       </c>
@@ -2927,8 +3553,11 @@
       <c r="F57" s="3" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="58" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="G57" s="2" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" ht="30">
       <c r="A58" s="1" t="s">
         <v>222</v>
       </c>
@@ -2947,8 +3576,11 @@
       <c r="F58" s="3" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="59" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="G58" s="2" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" ht="75">
       <c r="A59" s="1" t="s">
         <v>251</v>
       </c>
@@ -2967,8 +3599,11 @@
       <c r="F59" s="3" t="s">
         <v>324</v>
       </c>
-    </row>
-    <row r="60" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="G59" s="2" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" ht="30">
       <c r="A60" s="1" t="s">
         <v>252</v>
       </c>
@@ -2987,8 +3622,11 @@
       <c r="F60" s="3" t="s">
         <v>325</v>
       </c>
-    </row>
-    <row r="61" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="G60" s="2" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" ht="60">
       <c r="A61" s="1" t="s">
         <v>241</v>
       </c>
@@ -3007,8 +3645,11 @@
       <c r="F61" s="3" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="62" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="G61" s="2" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" ht="30">
       <c r="A62" s="1" t="s">
         <v>242</v>
       </c>
@@ -3027,8 +3668,11 @@
       <c r="F62" s="3" t="s">
         <v>327</v>
       </c>
-    </row>
-    <row r="63" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="G62" s="2" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" ht="30">
       <c r="A63" s="1" t="s">
         <v>244</v>
       </c>
@@ -3047,8 +3691,11 @@
       <c r="F63" s="3" t="s">
         <v>328</v>
       </c>
-    </row>
-    <row r="64" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="G63" s="2" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" ht="75">
       <c r="A64" s="1" t="s">
         <v>255</v>
       </c>
@@ -3067,8 +3714,11 @@
       <c r="F64" s="3" t="s">
         <v>329</v>
       </c>
-    </row>
-    <row r="65" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="G64" s="2" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" ht="60">
       <c r="A65" s="1" t="s">
         <v>256</v>
       </c>
@@ -3087,8 +3737,11 @@
       <c r="F65" s="3" t="s">
         <v>330</v>
       </c>
-    </row>
-    <row r="66" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="G65" s="2" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" ht="75">
       <c r="A66" s="1" t="s">
         <v>257</v>
       </c>
@@ -3107,8 +3760,11 @@
       <c r="F66" s="3" t="s">
         <v>329</v>
       </c>
-    </row>
-    <row r="67" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="G66" s="2" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" ht="30">
       <c r="A67" s="1" t="s">
         <v>258</v>
       </c>
@@ -3127,8 +3783,11 @@
       <c r="F67" s="3" t="s">
         <v>331</v>
       </c>
-    </row>
-    <row r="68" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="G67" s="2" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" ht="45">
       <c r="A68" s="1" t="s">
         <v>259</v>
       </c>
@@ -3142,13 +3801,16 @@
         <v>267</v>
       </c>
       <c r="E68" s="3" t="s">
-        <v>445</v>
+        <v>413</v>
       </c>
       <c r="F68" s="3" t="s">
         <v>332</v>
       </c>
-    </row>
-    <row r="69" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+      <c r="G68" s="2" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" ht="105">
       <c r="A69" s="1" t="s">
         <v>269</v>
       </c>
@@ -3162,13 +3824,16 @@
         <v>270</v>
       </c>
       <c r="E69" s="3" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="F69" s="3" t="s">
         <v>333</v>
       </c>
-    </row>
-    <row r="70" spans="1:7" ht="150" x14ac:dyDescent="0.25">
+      <c r="G69" s="2" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" ht="150">
       <c r="A70" s="1" t="s">
         <v>273</v>
       </c>
@@ -3182,13 +3847,16 @@
         <v>272</v>
       </c>
       <c r="E70" s="3" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="F70" s="3" t="s">
         <v>334</v>
       </c>
-    </row>
-    <row r="71" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="G70" s="2" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" ht="60">
       <c r="A71" s="1" t="s">
         <v>274</v>
       </c>
@@ -3202,13 +3870,16 @@
         <v>288</v>
       </c>
       <c r="E71" s="3" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="F71" s="3" t="s">
         <v>335</v>
       </c>
-    </row>
-    <row r="72" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="G71" s="2" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" ht="30">
       <c r="A72" s="1" t="s">
         <v>276</v>
       </c>
@@ -3222,13 +3893,16 @@
         <v>289</v>
       </c>
       <c r="E72" s="3" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="F72" s="3" t="s">
         <v>336</v>
       </c>
-    </row>
-    <row r="73" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="G72" s="2" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" ht="30">
       <c r="A73" s="1" t="s">
         <v>275</v>
       </c>
@@ -3242,13 +3916,16 @@
         <v>290</v>
       </c>
       <c r="E73" s="3" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="F73" s="3" t="s">
         <v>337</v>
       </c>
-    </row>
-    <row r="74" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="G73" s="2" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" ht="30">
       <c r="A74" s="1" t="s">
         <v>280</v>
       </c>
@@ -3262,13 +3939,16 @@
         <v>291</v>
       </c>
       <c r="E74" s="3" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="F74" s="3" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="75" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="G74" s="2" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" ht="30">
       <c r="A75" s="1" t="s">
         <v>284</v>
       </c>
@@ -3282,13 +3962,16 @@
         <v>292</v>
       </c>
       <c r="E75" s="3" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="F75" s="3" t="s">
         <v>339</v>
       </c>
-    </row>
-    <row r="76" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="G75" s="2" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" ht="45">
       <c r="A76" s="1" t="s">
         <v>285</v>
       </c>
@@ -3302,13 +3985,16 @@
         <v>293</v>
       </c>
       <c r="E76" s="3" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="F76" s="3" t="s">
         <v>340</v>
       </c>
-    </row>
-    <row r="77" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="G76" s="2" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" ht="60">
       <c r="A77" s="1" t="s">
         <v>287</v>
       </c>
@@ -3322,13 +4008,16 @@
         <v>341</v>
       </c>
       <c r="E77" s="3" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="F77" s="3" t="s">
         <v>342</v>
       </c>
-    </row>
-    <row r="78" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="G77" s="2" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" ht="45">
       <c r="A78" s="1" t="s">
         <v>296</v>
       </c>
@@ -3342,14 +4031,16 @@
         <v>303</v>
       </c>
       <c r="E78" s="3" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="F78" s="3" t="s">
         <v>339</v>
       </c>
-      <c r="G78" s="3"/>
-    </row>
-    <row r="79" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="G78" s="3" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" ht="45">
       <c r="A79" s="1" t="s">
         <v>298</v>
       </c>
@@ -3363,13 +4054,16 @@
         <v>304</v>
       </c>
       <c r="E79" s="3" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="F79" s="3" t="s">
         <v>343</v>
       </c>
-    </row>
-    <row r="80" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="G79" s="2" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" ht="45">
       <c r="A80" s="1" t="s">
         <v>297</v>
       </c>
@@ -3383,13 +4077,16 @@
         <v>305</v>
       </c>
       <c r="E80" s="3" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="F80" s="3" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="81" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="G80" s="2" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" ht="45">
       <c r="A81" s="1" t="s">
         <v>299</v>
       </c>
@@ -3403,13 +4100,16 @@
         <v>306</v>
       </c>
       <c r="E81" s="3" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="F81" s="3" t="s">
         <v>345</v>
       </c>
-    </row>
-    <row r="82" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="G81" s="2" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" ht="45">
       <c r="A82" s="1" t="s">
         <v>307</v>
       </c>
@@ -3423,13 +4123,16 @@
         <v>346</v>
       </c>
       <c r="E82" s="3" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="F82" s="3" t="s">
         <v>347</v>
       </c>
-    </row>
-    <row r="83" spans="1:6" ht="150" x14ac:dyDescent="0.25">
+      <c r="G82" s="2" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" ht="150">
       <c r="A83" s="1" t="s">
         <v>308</v>
       </c>
@@ -3443,13 +4146,16 @@
         <v>349</v>
       </c>
       <c r="E83" s="3" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="F83" s="3" t="s">
         <v>350</v>
       </c>
-    </row>
-    <row r="84" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="G83" s="2" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" ht="75">
       <c r="A84" s="1" t="s">
         <v>312</v>
       </c>
@@ -3463,13 +4169,16 @@
         <v>351</v>
       </c>
       <c r="E84" s="3" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="F84" s="3" t="s">
         <v>352</v>
       </c>
-    </row>
-    <row r="85" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="G84" s="2" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" ht="90">
       <c r="A85" s="1" t="s">
         <v>313</v>
       </c>
@@ -3483,13 +4192,16 @@
         <v>353</v>
       </c>
       <c r="E85" s="3" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="F85" s="3" t="s">
         <v>354</v>
       </c>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G85" s="2" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
         <v>316</v>
       </c>
@@ -3503,13 +4215,16 @@
         <v>355</v>
       </c>
       <c r="E86" s="3" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="F86" s="3" t="s">
         <v>356</v>
       </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G86" s="2" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
         <v>317</v>
       </c>
@@ -3523,13 +4238,16 @@
         <v>357</v>
       </c>
       <c r="E87" s="3" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="F87" s="3" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G87" s="2" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
         <v>322</v>
       </c>
@@ -3548,8 +4266,11 @@
       <c r="F88" s="3" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="89" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="G88" s="2" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" ht="30">
       <c r="A89" s="1" t="s">
         <v>359</v>
       </c>
@@ -3563,10 +4284,13 @@
         <v>361</v>
       </c>
       <c r="E89" s="3" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="F89" s="3" t="s">
         <v>362</v>
+      </c>
+      <c r="G89" s="2" t="s">
+        <v>526</v>
       </c>
     </row>
   </sheetData>

--- a/config/languageFile.xlsx
+++ b/config/languageFile.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fenn\Nextcloud\Artikel Cognitive Affective Maps Tools\CAM tools\CAMtools_CAMEL\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0CBAC216-C8BE-4B60-AAE1-345A6FD181D7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAC1602C-A6AD-49F2-ABCC-027303E7C34B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7455" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2227,8 +2227,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:G1048576"/>
+    <sheetView tabSelected="1" topLeftCell="C82" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="I84" sqref="I84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>

--- a/config/languageFile.xlsx
+++ b/config/languageFile.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20400"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20402"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fenn\Nextcloud\Artikel Cognitive Affective Maps Tools\CAM tools\CAMtools_CAMEL\static\config\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fenn\Nextcloud\Artikel Cognitive Affective Maps Tools\CAM tools\CAMtools_CAMEL\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86271E35-0185-4172-BC41-A70E75E1AE1F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B71CB72C-A50E-450A-8E5E-D00ADC64A3F0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7455" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -263,7 +263,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="632" uniqueCount="535">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="632" uniqueCount="536">
   <si>
     <t>english</t>
   </si>
@@ -334,9 +334,6 @@
     <t>Concepts support each other</t>
   </si>
   <si>
-    <t>Concepts inhibit each other</t>
-  </si>
-  <si>
     <t>qr_concept_10</t>
   </si>
   <si>
@@ -883,9 +880,6 @@
     <t>Mueva su Cognitive Affective Map</t>
   </si>
   <si>
-    <t>Support</t>
-  </si>
-  <si>
     <t>Inhibition</t>
   </si>
   <si>
@@ -1868,6 +1862,15 @@
   </si>
   <si>
     <t>Sie können Ihr CAM als Bild (svg-Datei) speichern.</t>
+  </si>
+  <si>
+    <t>Opposing</t>
+  </si>
+  <si>
+    <t>Supporting</t>
+  </si>
+  <si>
+    <t>Concepts oppose each other</t>
   </si>
 </sst>
 </file>
@@ -1935,7 +1938,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -1948,6 +1951,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2248,8 +2257,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A71" sqref="A71"/>
+    <sheetView tabSelected="1" topLeftCell="A41" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C46" sqref="C46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -2263,10 +2272,10 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>55</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>56</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>0</v>
@@ -2281,10 +2290,10 @@
         <v>7</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="H1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I1" t="s">
         <v>5</v>
@@ -2292,48 +2301,48 @@
     </row>
     <row r="2" spans="1:9" ht="105">
       <c r="A2" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>110</v>
-      </c>
       <c r="D2" s="2" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>74</v>
-      </c>
       <c r="D3" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>362</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="E3" s="3" t="s">
-        <v>364</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>112</v>
-      </c>
       <c r="G3" s="2" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="120">
@@ -2341,45 +2350,45 @@
         <v>4</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D4" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>363</v>
+      </c>
+      <c r="F4" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="E4" s="3" t="s">
-        <v>365</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>114</v>
-      </c>
       <c r="G4" s="2" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="60">
@@ -2393,16 +2402,16 @@
         <v>16</v>
       </c>
       <c r="D6" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>431</v>
+      </c>
+      <c r="F6" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="E6" s="3" t="s">
-        <v>433</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>118</v>
-      </c>
       <c r="G6" s="2" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -2416,16 +2425,16 @@
         <v>17</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -2439,16 +2448,16 @@
         <v>18</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -2462,16 +2471,16 @@
         <v>19</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -2485,16 +2494,16 @@
         <v>20</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="60">
@@ -2508,1833 +2517,1833 @@
         <v>21</v>
       </c>
       <c r="D11" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>369</v>
+      </c>
+      <c r="F11" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="G11" s="2" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="30">
+      <c r="A12" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>370</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="30">
+      <c r="A13" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>535</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="E13" s="6" t="s">
         <v>371</v>
       </c>
-      <c r="F11" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="30">
-      <c r="A12" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>372</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="30">
-      <c r="A13" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>373</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>456</v>
+      <c r="F13" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>454</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="30">
       <c r="A14" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="60">
       <c r="A15" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D15" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>373</v>
+      </c>
+      <c r="F15" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="E15" s="3" t="s">
-        <v>375</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>133</v>
-      </c>
       <c r="G15" s="2" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="30">
       <c r="A16" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D16" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>440</v>
+      </c>
+      <c r="F16" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="E16" s="3" t="s">
-        <v>442</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>135</v>
-      </c>
       <c r="G16" s="2" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="45">
       <c r="A17" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="45">
       <c r="A18" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="105">
       <c r="A19" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="30">
       <c r="A20" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="60">
       <c r="A21" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D21" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>377</v>
+      </c>
+      <c r="F21" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="E21" s="3" t="s">
-        <v>379</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>141</v>
-      </c>
       <c r="G21" s="2" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="105">
       <c r="A22" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="75">
       <c r="A23" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D23" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>378</v>
+      </c>
+      <c r="F23" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="E23" s="3" t="s">
-        <v>380</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>145</v>
-      </c>
       <c r="G23" s="2" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="30">
       <c r="A24" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D24" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>433</v>
+      </c>
+      <c r="F24" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="E24" s="3" t="s">
-        <v>435</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>147</v>
-      </c>
       <c r="G24" s="2" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="60">
       <c r="A25" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D25" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="F25" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="E25" s="3" t="s">
-        <v>381</v>
-      </c>
-      <c r="F25" s="3" t="s">
-        <v>149</v>
-      </c>
       <c r="G25" s="2" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="45">
       <c r="A26" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D26" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>380</v>
+      </c>
+      <c r="F26" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="E26" s="3" t="s">
-        <v>382</v>
-      </c>
-      <c r="F26" s="3" t="s">
-        <v>151</v>
-      </c>
       <c r="G26" s="2" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="105">
       <c r="A27" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D27" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>381</v>
+      </c>
+      <c r="F27" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="E27" s="3" t="s">
-        <v>383</v>
-      </c>
-      <c r="F27" s="3" t="s">
-        <v>153</v>
-      </c>
       <c r="G27" s="2" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="30">
       <c r="A28" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D28" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>434</v>
+      </c>
+      <c r="F28" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="E28" s="3" t="s">
-        <v>436</v>
-      </c>
-      <c r="F28" s="3" t="s">
-        <v>158</v>
-      </c>
       <c r="G28" s="2" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="120">
       <c r="A29" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="75">
       <c r="A30" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C30" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>382</v>
+      </c>
+      <c r="F30" s="3" t="s">
         <v>213</v>
       </c>
-      <c r="D30" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="E30" s="3" t="s">
-        <v>384</v>
-      </c>
-      <c r="F30" s="3" t="s">
-        <v>215</v>
-      </c>
       <c r="G30" s="2" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
     </row>
     <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="30">
       <c r="A32" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="60">
       <c r="A33" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="45">
       <c r="A34" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D34" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>436</v>
+      </c>
+      <c r="F34" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="E34" s="3" t="s">
-        <v>438</v>
-      </c>
-      <c r="F34" s="3" t="s">
-        <v>170</v>
-      </c>
       <c r="G34" s="2" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="60">
       <c r="A35" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="45">
       <c r="A36" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="60">
       <c r="A37" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
     </row>
     <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D38" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>389</v>
+      </c>
+      <c r="F38" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="E38" s="3" t="s">
-        <v>391</v>
-      </c>
-      <c r="F38" s="3" t="s">
-        <v>172</v>
-      </c>
       <c r="G38" s="2" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
     </row>
     <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D39" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="F39" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="E39" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="F39" s="3" t="s">
-        <v>174</v>
-      </c>
       <c r="G39" s="2" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
     </row>
     <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D40" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>390</v>
+      </c>
+      <c r="F40" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="E40" s="3" t="s">
-        <v>392</v>
-      </c>
-      <c r="F40" s="3" t="s">
-        <v>176</v>
-      </c>
       <c r="G40" s="2" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
     </row>
     <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
     </row>
     <row r="42" spans="1:7" ht="30">
       <c r="A42" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D42" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>392</v>
+      </c>
+      <c r="F42" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="E42" s="3" t="s">
-        <v>394</v>
-      </c>
-      <c r="F42" s="3" t="s">
-        <v>179</v>
-      </c>
       <c r="G42" s="2" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
     </row>
     <row r="43" spans="1:7" ht="30">
       <c r="A43" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D43" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>393</v>
+      </c>
+      <c r="F43" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="E43" s="3" t="s">
-        <v>395</v>
-      </c>
-      <c r="F43" s="3" t="s">
-        <v>181</v>
-      </c>
       <c r="G43" s="2" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
     </row>
     <row r="44" spans="1:7" ht="30">
       <c r="A44" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D44" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>394</v>
+      </c>
+      <c r="F44" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="E44" s="3" t="s">
-        <v>396</v>
-      </c>
-      <c r="F44" s="3" t="s">
-        <v>183</v>
-      </c>
       <c r="G44" s="2" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
     </row>
     <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D45" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>395</v>
+      </c>
+      <c r="F45" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="E45" s="3" t="s">
-        <v>397</v>
-      </c>
-      <c r="F45" s="3" t="s">
-        <v>185</v>
-      </c>
       <c r="G45" s="2" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
     </row>
     <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C46" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="B46" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>87</v>
-      </c>
       <c r="D46" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>437</v>
+      </c>
+      <c r="F46" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="E46" s="3" t="s">
-        <v>439</v>
-      </c>
-      <c r="F46" s="3" t="s">
-        <v>187</v>
-      </c>
       <c r="G46" s="2" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
     </row>
     <row r="47" spans="1:7" ht="30">
       <c r="A47" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D47" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>438</v>
+      </c>
+      <c r="F47" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="E47" s="3" t="s">
-        <v>440</v>
-      </c>
-      <c r="F47" s="3" t="s">
-        <v>189</v>
-      </c>
       <c r="G47" s="2" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
     </row>
     <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D48" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="F48" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="E48" s="3" t="s">
-        <v>398</v>
-      </c>
-      <c r="F48" s="3" t="s">
-        <v>191</v>
-      </c>
       <c r="G48" s="2" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
     </row>
     <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D49" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>397</v>
+      </c>
+      <c r="F49" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="E49" s="3" t="s">
-        <v>399</v>
-      </c>
-      <c r="F49" s="3" t="s">
-        <v>193</v>
-      </c>
       <c r="G49" s="2" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
     </row>
     <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C50" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="E50" s="3" t="s">
+        <v>398</v>
+      </c>
+      <c r="F50" s="3" t="s">
         <v>216</v>
       </c>
-      <c r="D50" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="E50" s="3" t="s">
-        <v>400</v>
-      </c>
-      <c r="F50" s="3" t="s">
-        <v>218</v>
-      </c>
       <c r="G50" s="2" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
     </row>
     <row r="51" spans="1:7" ht="30">
       <c r="A51" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C51" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="B51" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>96</v>
-      </c>
       <c r="D51" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="E51" s="3" t="s">
+        <v>399</v>
+      </c>
+      <c r="F51" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="E51" s="3" t="s">
-        <v>401</v>
-      </c>
-      <c r="F51" s="3" t="s">
-        <v>195</v>
-      </c>
       <c r="G51" s="2" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
     </row>
     <row r="52" spans="1:7" ht="30">
       <c r="A52" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>439</v>
+      </c>
+      <c r="F52" s="3" t="s">
         <v>236</v>
       </c>
-      <c r="B52" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="C52" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="D52" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="E52" s="3" t="s">
-        <v>441</v>
-      </c>
-      <c r="F52" s="3" t="s">
-        <v>238</v>
-      </c>
       <c r="G52" s="2" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" ht="30">
+      <c r="A53" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>533</v>
+      </c>
+      <c r="D53" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="E53" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="F53" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="G53" s="4" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" ht="30">
+      <c r="A54" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>534</v>
+      </c>
+      <c r="D54" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="E54" s="6" t="s">
+        <v>400</v>
+      </c>
+      <c r="F54" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="G54" s="4" t="s">
         <v>496</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" ht="30">
-      <c r="A53" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="B53" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="C53" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="D53" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="E53" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="F53" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="G53" s="2" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" ht="30">
-      <c r="A54" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="B54" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="C54" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="D54" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="E54" s="3" t="s">
-        <v>402</v>
-      </c>
-      <c r="F54" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="G54" s="2" t="s">
-        <v>498</v>
       </c>
     </row>
     <row r="55" spans="1:7" ht="30">
       <c r="A55" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D55" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="E55" s="3" t="s">
+        <v>401</v>
+      </c>
+      <c r="F55" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="E55" s="3" t="s">
-        <v>403</v>
-      </c>
-      <c r="F55" s="3" t="s">
-        <v>202</v>
-      </c>
       <c r="G55" s="2" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
     </row>
     <row r="56" spans="1:7" ht="30">
       <c r="A56" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="F56" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
     </row>
     <row r="57" spans="1:7" ht="90">
       <c r="A57" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="F57" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
     </row>
     <row r="58" spans="1:7" ht="30">
       <c r="A58" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="D58" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="B58" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="C58" s="2" t="s">
+      <c r="E58" s="3" t="s">
+        <v>403</v>
+      </c>
+      <c r="F58" s="3" t="s">
         <v>223</v>
       </c>
-      <c r="D58" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="E58" s="3" t="s">
-        <v>405</v>
-      </c>
-      <c r="F58" s="3" t="s">
-        <v>225</v>
-      </c>
       <c r="G58" s="2" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
     </row>
     <row r="59" spans="1:7" ht="75">
       <c r="A59" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="E59" s="3" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="F59" s="3" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
     </row>
     <row r="60" spans="1:7" ht="30">
       <c r="A60" s="1" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="E60" s="3" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="F60" s="3" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
     </row>
     <row r="61" spans="1:7" ht="60">
       <c r="A61" s="1" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="F61" s="3" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
     </row>
     <row r="62" spans="1:7" ht="30">
       <c r="A62" s="1" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="F62" s="3" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
     </row>
     <row r="63" spans="1:7" ht="30">
       <c r="A63" s="1" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="F63" s="3" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
     </row>
     <row r="64" spans="1:7" ht="75">
       <c r="A64" s="1" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="F64" s="3" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="65" spans="1:7" ht="60">
       <c r="A65" s="1" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="F65" s="3" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
     </row>
     <row r="66" spans="1:7" ht="75">
       <c r="A66" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="F66" s="3" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="67" spans="1:7" ht="30">
       <c r="A67" s="1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="F67" s="3" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
     </row>
     <row r="68" spans="1:7" ht="45">
       <c r="A68" s="1" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E68" s="3" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="F68" s="3" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
     </row>
     <row r="69" spans="1:7" ht="105">
       <c r="A69" s="1" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C69" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="D69" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="D69" s="2" t="s">
-        <v>270</v>
-      </c>
       <c r="E69" s="3" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="F69" s="3" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
     </row>
     <row r="70" spans="1:7" ht="150">
       <c r="A70" s="1" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="E70" s="3" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="F70" s="3" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
     </row>
     <row r="71" spans="1:7" ht="60">
       <c r="A71" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>529</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>531</v>
+      </c>
+      <c r="D71" s="2" t="s">
         <v>532</v>
       </c>
-      <c r="B71" s="2" t="s">
+      <c r="E71" s="4" t="s">
         <v>531</v>
       </c>
-      <c r="C71" s="2" t="s">
-        <v>533</v>
-      </c>
-      <c r="D71" s="2" t="s">
-        <v>534</v>
-      </c>
-      <c r="E71" s="4" t="s">
-        <v>533</v>
-      </c>
       <c r="F71" s="4" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="G71" s="4" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
     </row>
     <row r="72" spans="1:7" ht="60">
       <c r="A72" s="1" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="E72" s="3" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="F72" s="3" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
     </row>
     <row r="73" spans="1:7" ht="30">
       <c r="A73" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="C73" s="2" t="s">
         <v>276</v>
       </c>
-      <c r="B73" s="2" t="s">
-        <v>295</v>
-      </c>
-      <c r="C73" s="2" t="s">
-        <v>278</v>
-      </c>
       <c r="D73" s="2" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="E73" s="3" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="F73" s="3" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
     </row>
     <row r="74" spans="1:7" ht="30">
       <c r="A74" s="1" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="E74" s="3" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="F74" s="3" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
     </row>
     <row r="75" spans="1:7" ht="30">
       <c r="A75" s="1" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="E75" s="3" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="F75" s="3" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
     </row>
     <row r="76" spans="1:7" ht="30">
       <c r="A76" s="1" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="E76" s="3" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="F76" s="3" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
     </row>
     <row r="77" spans="1:7" ht="45">
       <c r="A77" s="1" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="E77" s="3" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="F77" s="3" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
     </row>
     <row r="78" spans="1:7" ht="60">
       <c r="A78" s="1" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="E78" s="3" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="F78" s="3" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
     </row>
     <row r="79" spans="1:7" ht="45">
       <c r="A79" s="1" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="E79" s="3" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="F79" s="3" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="G79" s="3" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
     </row>
     <row r="80" spans="1:7" ht="45">
       <c r="A80" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="C80" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="B80" s="2" t="s">
-        <v>294</v>
-      </c>
-      <c r="C80" s="2" t="s">
-        <v>300</v>
-      </c>
       <c r="D80" s="2" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="E80" s="3" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="F80" s="3" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
     </row>
     <row r="81" spans="1:7" ht="45">
       <c r="A81" s="1" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="E81" s="3" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="F81" s="3" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
     </row>
     <row r="82" spans="1:7" ht="45">
       <c r="A82" s="1" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="E82" s="3" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="F82" s="3" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
     </row>
     <row r="83" spans="1:7" ht="45">
       <c r="A83" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="B83" s="2" t="s">
         <v>307</v>
       </c>
-      <c r="B83" s="2" t="s">
-        <v>309</v>
-      </c>
       <c r="C83" s="2" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="E83" s="3" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="F83" s="3" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
     </row>
     <row r="84" spans="1:7" ht="150">
       <c r="A84" s="1" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="C84" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="E84" s="3" t="s">
+        <v>426</v>
+      </c>
+      <c r="F84" s="3" t="s">
         <v>348</v>
       </c>
-      <c r="D84" s="2" t="s">
-        <v>349</v>
-      </c>
-      <c r="E84" s="3" t="s">
-        <v>428</v>
-      </c>
-      <c r="F84" s="3" t="s">
-        <v>350</v>
-      </c>
       <c r="G84" s="2" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
     </row>
     <row r="85" spans="1:7" ht="75">
       <c r="A85" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="B85" s="2" t="s">
         <v>312</v>
       </c>
-      <c r="B85" s="2" t="s">
-        <v>314</v>
-      </c>
       <c r="C85" s="2" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="E85" s="3" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="F85" s="3" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
     </row>
     <row r="86" spans="1:7" ht="90">
       <c r="A86" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="C86" s="2" t="s">
         <v>313</v>
       </c>
-      <c r="B86" s="2" t="s">
-        <v>314</v>
-      </c>
-      <c r="C86" s="2" t="s">
-        <v>315</v>
-      </c>
       <c r="D86" s="2" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="E86" s="3" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="F86" s="3" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
     </row>
     <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="B87" s="2" t="s">
         <v>316</v>
       </c>
-      <c r="B87" s="2" t="s">
+      <c r="C87" s="2" t="s">
         <v>318</v>
       </c>
-      <c r="C87" s="2" t="s">
-        <v>320</v>
-      </c>
       <c r="D87" s="2" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="E87" s="3" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="F87" s="3" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
     </row>
     <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="B88" s="2" t="s">
         <v>317</v>
       </c>
-      <c r="B88" s="2" t="s">
+      <c r="C88" s="2" t="s">
         <v>319</v>
       </c>
-      <c r="C88" s="2" t="s">
-        <v>321</v>
-      </c>
       <c r="D88" s="2" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="E88" s="3" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="F88" s="3" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
     </row>
     <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D89" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="E89" s="3" t="s">
+        <v>362</v>
+      </c>
+      <c r="F89" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="E89" s="3" t="s">
-        <v>364</v>
-      </c>
-      <c r="F89" s="3" t="s">
-        <v>112</v>
-      </c>
       <c r="G89" s="2" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="90" spans="1:7" ht="30">
       <c r="A90" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="D90" s="2" t="s">
         <v>359</v>
       </c>
-      <c r="B90" s="2" t="s">
-        <v>358</v>
-      </c>
-      <c r="C90" s="2" t="s">
+      <c r="E90" s="3" t="s">
+        <v>432</v>
+      </c>
+      <c r="F90" s="3" t="s">
         <v>360</v>
       </c>
-      <c r="D90" s="2" t="s">
-        <v>361</v>
-      </c>
-      <c r="E90" s="3" t="s">
-        <v>434</v>
-      </c>
-      <c r="F90" s="3" t="s">
-        <v>362</v>
-      </c>
       <c r="G90" s="2" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
     </row>
   </sheetData>

--- a/config/languageFile.xlsx
+++ b/config/languageFile.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fenn\Nextcloud\Artikel Cognitive Affective Maps Tools\CAM tools\CAMtools_CAMEL\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B71CB72C-A50E-450A-8E5E-D00ADC64A3F0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21CFA545-9D7C-44BC-99C6-1841AA1C2A5C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7455" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -850,15 +850,9 @@
     <t>Tipo e intensidad de la conexión</t>
   </si>
   <si>
-    <t>Verstärkung</t>
-  </si>
-  <si>
     <t>Konzepte verstärken einander</t>
   </si>
   <si>
-    <t>Hemmung</t>
-  </si>
-  <si>
     <t>Reforzamiento</t>
   </si>
   <si>
@@ -1871,6 +1865,12 @@
   </si>
   <si>
     <t>Concepts oppose each other</t>
+  </si>
+  <si>
+    <t>Verstärkend</t>
+  </si>
+  <si>
+    <t>Hemmend</t>
   </si>
 </sst>
 </file>
@@ -2257,8 +2257,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C46" sqref="C46"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D49" sqref="D49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -2290,7 +2290,7 @@
         <v>7</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="H1" t="s">
         <v>56</v>
@@ -2310,16 +2310,16 @@
         <v>109</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -2336,13 +2336,13 @@
         <v>110</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>111</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="120">
@@ -2359,13 +2359,13 @@
         <v>112</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>113</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -2382,13 +2382,13 @@
         <v>115</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>114</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="60">
@@ -2405,13 +2405,13 @@
         <v>116</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>117</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -2428,13 +2428,13 @@
         <v>118</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>120</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -2451,13 +2451,13 @@
         <v>119</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="F8" s="3" t="s">
         <v>121</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -2474,13 +2474,13 @@
         <v>122</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="F9" s="3" t="s">
         <v>124</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -2497,13 +2497,13 @@
         <v>123</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>125</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="60">
@@ -2520,13 +2520,13 @@
         <v>126</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="F11" s="3" t="s">
         <v>127</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="30">
@@ -2540,16 +2540,16 @@
         <v>22</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="F12" s="6" t="s">
         <v>161</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="30">
@@ -2560,19 +2560,19 @@
         <v>2</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>128</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="F13" s="6" t="s">
         <v>130</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="30">
@@ -2589,13 +2589,13 @@
         <v>129</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="60">
@@ -2612,13 +2612,13 @@
         <v>131</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="F15" s="3" t="s">
         <v>132</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="30">
@@ -2635,13 +2635,13 @@
         <v>133</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="F16" s="3" t="s">
         <v>134</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="45">
@@ -2658,13 +2658,13 @@
         <v>135</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="F17" s="3" t="s">
         <v>155</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="45">
@@ -2681,13 +2681,13 @@
         <v>136</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="F18" s="3" t="s">
         <v>154</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="105">
@@ -2698,19 +2698,19 @@
         <v>2</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>141</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="F19" s="3" t="s">
         <v>153</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="30">
@@ -2727,13 +2727,13 @@
         <v>138</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="F20" s="3" t="s">
         <v>137</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="60">
@@ -2750,13 +2750,13 @@
         <v>139</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="F21" s="3" t="s">
         <v>140</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="105">
@@ -2773,13 +2773,13 @@
         <v>158</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="F22" s="3" t="s">
         <v>142</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="75">
@@ -2790,19 +2790,19 @@
         <v>2</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>143</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="F23" s="3" t="s">
         <v>144</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="30">
@@ -2819,13 +2819,13 @@
         <v>145</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="F24" s="3" t="s">
         <v>146</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="60">
@@ -2842,13 +2842,13 @@
         <v>147</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="F25" s="3" t="s">
         <v>148</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="45">
@@ -2865,13 +2865,13 @@
         <v>149</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="F26" s="3" t="s">
         <v>150</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="105">
@@ -2882,19 +2882,19 @@
         <v>2</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>151</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="F27" s="3" t="s">
         <v>152</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="30">
@@ -2911,13 +2911,13 @@
         <v>156</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="F28" s="3" t="s">
         <v>157</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="120">
@@ -2934,36 +2934,36 @@
         <v>159</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="F29" s="3" t="s">
         <v>162</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="75">
       <c r="A30" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C30" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>380</v>
+      </c>
+      <c r="F30" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="D30" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="E30" s="3" t="s">
-        <v>382</v>
-      </c>
-      <c r="F30" s="3" t="s">
-        <v>213</v>
-      </c>
       <c r="G30" s="2" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -2980,13 +2980,13 @@
         <v>160</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="F31" s="3" t="s">
         <v>166</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="30">
@@ -3003,13 +3003,13 @@
         <v>164</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="F32" s="3" t="s">
         <v>163</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="60">
@@ -3026,13 +3026,13 @@
         <v>165</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="F33" s="3" t="s">
         <v>167</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="45">
@@ -3049,13 +3049,13 @@
         <v>168</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="F34" s="3" t="s">
         <v>169</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="60">
@@ -3066,19 +3066,19 @@
         <v>2</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="45">
@@ -3089,19 +3089,19 @@
         <v>2</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="60">
@@ -3112,19 +3112,19 @@
         <v>2</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -3141,13 +3141,13 @@
         <v>170</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="F38" s="3" t="s">
         <v>171</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -3170,7 +3170,7 @@
         <v>173</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -3187,13 +3187,13 @@
         <v>174</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="F40" s="3" t="s">
         <v>175</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -3210,13 +3210,13 @@
         <v>66</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="F41" s="3" t="s">
         <v>176</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
     </row>
     <row r="42" spans="1:7" ht="30">
@@ -3233,13 +3233,13 @@
         <v>177</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="F42" s="3" t="s">
         <v>178</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
     </row>
     <row r="43" spans="1:7" ht="30">
@@ -3256,13 +3256,13 @@
         <v>179</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="F43" s="3" t="s">
         <v>180</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
     </row>
     <row r="44" spans="1:7" ht="30">
@@ -3279,13 +3279,13 @@
         <v>181</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="F44" s="3" t="s">
         <v>182</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
     </row>
     <row r="45" spans="1:7">
@@ -3302,13 +3302,13 @@
         <v>183</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="F45" s="3" t="s">
         <v>184</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
     </row>
     <row r="46" spans="1:7">
@@ -3325,13 +3325,13 @@
         <v>185</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="F46" s="3" t="s">
         <v>186</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
     </row>
     <row r="47" spans="1:7" ht="30">
@@ -3348,13 +3348,13 @@
         <v>187</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="F47" s="3" t="s">
         <v>188</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
     </row>
     <row r="48" spans="1:7">
@@ -3371,13 +3371,13 @@
         <v>189</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="F48" s="3" t="s">
         <v>190</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
     </row>
     <row r="49" spans="1:7">
@@ -3394,36 +3394,36 @@
         <v>191</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="F49" s="3" t="s">
         <v>192</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
     </row>
     <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>84</v>
       </c>
       <c r="C50" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="E50" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="F50" s="3" t="s">
         <v>214</v>
       </c>
-      <c r="D50" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="E50" s="3" t="s">
-        <v>398</v>
-      </c>
-      <c r="F50" s="3" t="s">
-        <v>216</v>
-      </c>
       <c r="G50" s="2" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
     </row>
     <row r="51" spans="1:7" ht="30">
@@ -3440,36 +3440,36 @@
         <v>193</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="F51" s="3" t="s">
         <v>194</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
     </row>
     <row r="52" spans="1:7" ht="30">
       <c r="A52" s="1" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>93</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
     </row>
     <row r="53" spans="1:7" ht="30">
@@ -3480,19 +3480,19 @@
         <v>93</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="D53" s="4" t="s">
+        <v>535</v>
+      </c>
+      <c r="E53" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="F53" s="6" t="s">
         <v>197</v>
       </c>
-      <c r="E53" s="6" t="s">
-        <v>205</v>
-      </c>
-      <c r="F53" s="6" t="s">
-        <v>199</v>
-      </c>
       <c r="G53" s="4" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
     </row>
     <row r="54" spans="1:7" ht="30">
@@ -3503,19 +3503,19 @@
         <v>93</v>
       </c>
       <c r="C54" s="4" t="s">
+        <v>532</v>
+      </c>
+      <c r="D54" s="4" t="s">
         <v>534</v>
       </c>
-      <c r="D54" s="4" t="s">
-        <v>195</v>
-      </c>
       <c r="E54" s="6" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="F54" s="6" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="G54" s="4" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
     </row>
     <row r="55" spans="1:7" ht="30">
@@ -3529,21 +3529,21 @@
         <v>96</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="F55" s="3" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
     </row>
     <row r="56" spans="1:7" ht="30">
       <c r="A56" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>93</v>
@@ -3555,18 +3555,18 @@
         <v>164</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="F56" s="3" t="s">
         <v>163</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
     </row>
     <row r="57" spans="1:7" ht="90">
       <c r="A57" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>93</v>
@@ -3575,737 +3575,737 @@
         <v>100</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="F57" s="3" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
     </row>
     <row r="58" spans="1:7" ht="30">
       <c r="A58" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>93</v>
       </c>
       <c r="C58" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>401</v>
+      </c>
+      <c r="F58" s="3" t="s">
         <v>221</v>
       </c>
-      <c r="D58" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="E58" s="3" t="s">
-        <v>403</v>
-      </c>
-      <c r="F58" s="3" t="s">
-        <v>223</v>
-      </c>
       <c r="G58" s="2" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
     </row>
     <row r="59" spans="1:7" ht="75">
       <c r="A59" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="E59" s="3" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="F59" s="3" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
     </row>
     <row r="60" spans="1:7" ht="30">
       <c r="A60" s="1" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="E60" s="3" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="F60" s="3" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
     </row>
     <row r="61" spans="1:7" ht="60">
       <c r="A61" s="1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="F61" s="3" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
     </row>
     <row r="62" spans="1:7" ht="30">
       <c r="A62" s="1" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="F62" s="3" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
     </row>
     <row r="63" spans="1:7" ht="30">
       <c r="A63" s="1" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="F63" s="3" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
     </row>
     <row r="64" spans="1:7" ht="75">
       <c r="A64" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="F64" s="3" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
     </row>
     <row r="65" spans="1:7" ht="60">
       <c r="A65" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="F65" s="3" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
     </row>
     <row r="66" spans="1:7" ht="75">
       <c r="A66" s="1" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="F66" s="3" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
     </row>
     <row r="67" spans="1:7" ht="30">
       <c r="A67" s="1" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="F67" s="3" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="68" spans="1:7" ht="45">
       <c r="A68" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="E68" s="3" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="F68" s="3" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
     </row>
     <row r="69" spans="1:7" ht="105">
       <c r="A69" s="1" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C69" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="D69" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="D69" s="2" t="s">
-        <v>268</v>
-      </c>
       <c r="E69" s="3" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="F69" s="3" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
     </row>
     <row r="70" spans="1:7" ht="150">
       <c r="A70" s="1" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="E70" s="3" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="F70" s="3" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
     </row>
     <row r="71" spans="1:7" ht="60">
       <c r="A71" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>527</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>529</v>
+      </c>
+      <c r="D71" s="2" t="s">
         <v>530</v>
       </c>
-      <c r="B71" s="2" t="s">
+      <c r="E71" s="4" t="s">
         <v>529</v>
       </c>
-      <c r="C71" s="2" t="s">
-        <v>531</v>
-      </c>
-      <c r="D71" s="2" t="s">
-        <v>532</v>
-      </c>
-      <c r="E71" s="4" t="s">
-        <v>531</v>
-      </c>
       <c r="F71" s="4" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="G71" s="4" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
     </row>
     <row r="72" spans="1:7" ht="60">
       <c r="A72" s="1" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="E72" s="3" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="F72" s="3" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
     </row>
     <row r="73" spans="1:7" ht="30">
       <c r="A73" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="C73" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="B73" s="2" t="s">
-        <v>293</v>
-      </c>
-      <c r="C73" s="2" t="s">
-        <v>276</v>
-      </c>
       <c r="D73" s="2" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="E73" s="3" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="F73" s="3" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
     </row>
     <row r="74" spans="1:7" ht="30">
       <c r="A74" s="1" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="E74" s="3" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="F74" s="3" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
     </row>
     <row r="75" spans="1:7" ht="30">
       <c r="A75" s="1" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="E75" s="3" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="F75" s="3" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
     </row>
     <row r="76" spans="1:7" ht="30">
       <c r="A76" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="E76" s="3" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="F76" s="3" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
     </row>
     <row r="77" spans="1:7" ht="45">
       <c r="A77" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="E77" s="3" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="F77" s="3" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
     </row>
     <row r="78" spans="1:7" ht="60">
       <c r="A78" s="1" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="E78" s="3" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="F78" s="3" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
     </row>
     <row r="79" spans="1:7" ht="45">
       <c r="A79" s="1" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="E79" s="3" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="F79" s="3" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="G79" s="3" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
     </row>
     <row r="80" spans="1:7" ht="45">
       <c r="A80" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="C80" s="2" t="s">
         <v>296</v>
       </c>
-      <c r="B80" s="2" t="s">
-        <v>292</v>
-      </c>
-      <c r="C80" s="2" t="s">
-        <v>298</v>
-      </c>
       <c r="D80" s="2" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="E80" s="3" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="F80" s="3" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
     </row>
     <row r="81" spans="1:7" ht="45">
       <c r="A81" s="1" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="E81" s="3" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="F81" s="3" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
     </row>
     <row r="82" spans="1:7" ht="45">
       <c r="A82" s="1" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="E82" s="3" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="F82" s="3" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
     </row>
     <row r="83" spans="1:7" ht="45">
       <c r="A83" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="B83" s="2" t="s">
         <v>305</v>
       </c>
-      <c r="B83" s="2" t="s">
-        <v>307</v>
-      </c>
       <c r="C83" s="2" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="E83" s="3" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="F83" s="3" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
     </row>
     <row r="84" spans="1:7" ht="150">
       <c r="A84" s="1" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="C84" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="E84" s="3" t="s">
+        <v>424</v>
+      </c>
+      <c r="F84" s="3" t="s">
         <v>346</v>
       </c>
-      <c r="D84" s="2" t="s">
-        <v>347</v>
-      </c>
-      <c r="E84" s="3" t="s">
-        <v>426</v>
-      </c>
-      <c r="F84" s="3" t="s">
-        <v>348</v>
-      </c>
       <c r="G84" s="2" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
     </row>
     <row r="85" spans="1:7" ht="75">
       <c r="A85" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="B85" s="2" t="s">
         <v>310</v>
       </c>
-      <c r="B85" s="2" t="s">
-        <v>312</v>
-      </c>
       <c r="C85" s="2" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="E85" s="3" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="F85" s="3" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
     </row>
     <row r="86" spans="1:7" ht="90">
       <c r="A86" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="C86" s="2" t="s">
         <v>311</v>
       </c>
-      <c r="B86" s="2" t="s">
-        <v>312</v>
-      </c>
-      <c r="C86" s="2" t="s">
-        <v>313</v>
-      </c>
       <c r="D86" s="2" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="E86" s="3" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="F86" s="3" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
     </row>
     <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="B87" s="2" t="s">
         <v>314</v>
       </c>
-      <c r="B87" s="2" t="s">
+      <c r="C87" s="2" t="s">
         <v>316</v>
       </c>
-      <c r="C87" s="2" t="s">
-        <v>318</v>
-      </c>
       <c r="D87" s="2" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="E87" s="3" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="F87" s="3" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
     </row>
     <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="B88" s="2" t="s">
         <v>315</v>
       </c>
-      <c r="B88" s="2" t="s">
+      <c r="C88" s="2" t="s">
         <v>317</v>
       </c>
-      <c r="C88" s="2" t="s">
-        <v>319</v>
-      </c>
       <c r="D88" s="2" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="E88" s="3" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="F88" s="3" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
     </row>
     <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>73</v>
@@ -4314,36 +4314,36 @@
         <v>110</v>
       </c>
       <c r="E89" s="3" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="F89" s="3" t="s">
         <v>111</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
     </row>
     <row r="90" spans="1:7" ht="30">
       <c r="A90" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="D90" s="2" t="s">
         <v>357</v>
       </c>
-      <c r="B90" s="2" t="s">
-        <v>356</v>
-      </c>
-      <c r="C90" s="2" t="s">
+      <c r="E90" s="3" t="s">
+        <v>430</v>
+      </c>
+      <c r="F90" s="3" t="s">
         <v>358</v>
       </c>
-      <c r="D90" s="2" t="s">
-        <v>359</v>
-      </c>
-      <c r="E90" s="3" t="s">
-        <v>432</v>
-      </c>
-      <c r="F90" s="3" t="s">
-        <v>360</v>
-      </c>
       <c r="G90" s="2" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
     </row>
   </sheetData>
